--- a/data/raw/others/CBHPI.xlsx
+++ b/data/raw/others/CBHPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E62F5E-1C2D-468A-BE82-89D66FDDC272}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96884438-C201-42D2-8209-5D5C90BAAD7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataframe" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="391">
   <si>
     <r>
       <rPr>
@@ -1317,6 +1317,9 @@
   <si>
     <t>01/01/2020</t>
   </si>
+  <si>
+    <t>CBHPI_20200724</t>
+  </si>
 </sst>
 </file>
 
@@ -1327,7 +1330,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1380,6 +1383,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1566,7 +1575,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1656,6 +1665,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2051,15 +2063,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4BFC32-6FBB-4D40-9CAB-1D6F329C34A2}">
-  <dimension ref="A1:EP230"/>
+  <dimension ref="A1:EQ231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="DP217" workbookViewId="0">
+      <selection activeCell="EQ232" sqref="EQ232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:146">
+    <row r="1" spans="1:147">
       <c r="A1" s="26"/>
       <c r="B1" s="26" t="s">
         <v>16</v>
@@ -2496,9 +2511,12 @@
       <c r="EP1" s="26" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:146">
-      <c r="A2" s="26" t="s">
+      <c r="EQ1" s="26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:147">
+      <c r="A2" s="32" t="s">
         <v>161</v>
       </c>
       <c r="B2">
@@ -2936,9 +2954,12 @@
       <c r="EP2">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:146">
-      <c r="A3" s="26" t="s">
+      <c r="EQ2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:147">
+      <c r="A3" s="32" t="s">
         <v>162</v>
       </c>
       <c r="B3">
@@ -3376,9 +3397,12 @@
       <c r="EP3">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:146">
-      <c r="A4" s="26" t="s">
+      <c r="EQ3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:147">
+      <c r="A4" s="32" t="s">
         <v>163</v>
       </c>
       <c r="B4">
@@ -3816,9 +3840,12 @@
       <c r="EP4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:146">
-      <c r="A5" s="26" t="s">
+      <c r="EQ4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:147">
+      <c r="A5" s="32" t="s">
         <v>164</v>
       </c>
       <c r="B5">
@@ -4256,9 +4283,12 @@
       <c r="EP5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:146">
-      <c r="A6" s="26" t="s">
+      <c r="EQ5">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:147">
+      <c r="A6" s="32" t="s">
         <v>165</v>
       </c>
       <c r="B6">
@@ -4696,9 +4726,12 @@
       <c r="EP6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:146">
-      <c r="A7" s="26" t="s">
+      <c r="EQ6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:147">
+      <c r="A7" s="32" t="s">
         <v>166</v>
       </c>
       <c r="B7">
@@ -5136,9 +5169,12 @@
       <c r="EP7">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:146">
-      <c r="A8" s="26" t="s">
+      <c r="EQ7">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:147">
+      <c r="A8" s="32" t="s">
         <v>167</v>
       </c>
       <c r="B8">
@@ -5576,9 +5612,12 @@
       <c r="EP8">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:146">
-      <c r="A9" s="26" t="s">
+      <c r="EQ8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:147">
+      <c r="A9" s="32" t="s">
         <v>168</v>
       </c>
       <c r="B9">
@@ -6016,9 +6055,12 @@
       <c r="EP9">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:146">
-      <c r="A10" s="26" t="s">
+      <c r="EQ9">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:147">
+      <c r="A10" s="32" t="s">
         <v>169</v>
       </c>
       <c r="B10">
@@ -6456,9 +6498,12 @@
       <c r="EP10">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:146">
-      <c r="A11" s="26" t="s">
+      <c r="EQ10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:147">
+      <c r="A11" s="32" t="s">
         <v>170</v>
       </c>
       <c r="B11">
@@ -6896,9 +6941,12 @@
       <c r="EP11">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:146">
-      <c r="A12" s="26" t="s">
+      <c r="EQ11">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:147">
+      <c r="A12" s="32" t="s">
         <v>171</v>
       </c>
       <c r="B12">
@@ -7336,9 +7384,12 @@
       <c r="EP12">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:146">
-      <c r="A13" s="26" t="s">
+      <c r="EQ12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:147">
+      <c r="A13" s="32" t="s">
         <v>172</v>
       </c>
       <c r="B13">
@@ -7776,9 +7827,12 @@
       <c r="EP13">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:146">
-      <c r="A14" s="26" t="s">
+      <c r="EQ13">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:147">
+      <c r="A14" s="32" t="s">
         <v>173</v>
       </c>
       <c r="B14">
@@ -8216,9 +8270,12 @@
       <c r="EP14">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:146">
-      <c r="A15" s="26" t="s">
+      <c r="EQ14">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:147">
+      <c r="A15" s="32" t="s">
         <v>174</v>
       </c>
       <c r="B15">
@@ -8656,9 +8713,12 @@
       <c r="EP15">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:146">
-      <c r="A16" s="26" t="s">
+      <c r="EQ15">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:147">
+      <c r="A16" s="32" t="s">
         <v>175</v>
       </c>
       <c r="B16">
@@ -9096,9 +9156,12 @@
       <c r="EP16">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:146">
-      <c r="A17" s="26" t="s">
+      <c r="EQ16">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:147">
+      <c r="A17" s="32" t="s">
         <v>176</v>
       </c>
       <c r="B17">
@@ -9536,9 +9599,12 @@
       <c r="EP17">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:146">
-      <c r="A18" s="26" t="s">
+      <c r="EQ17">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:147">
+      <c r="A18" s="32" t="s">
         <v>177</v>
       </c>
       <c r="B18">
@@ -9976,9 +10042,12 @@
       <c r="EP18">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:146">
-      <c r="A19" s="26" t="s">
+      <c r="EQ18">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:147">
+      <c r="A19" s="32" t="s">
         <v>178</v>
       </c>
       <c r="B19">
@@ -10416,9 +10485,12 @@
       <c r="EP19">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:146">
-      <c r="A20" s="26" t="s">
+      <c r="EQ19">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:147">
+      <c r="A20" s="32" t="s">
         <v>179</v>
       </c>
       <c r="B20">
@@ -10856,9 +10928,12 @@
       <c r="EP20">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:146">
-      <c r="A21" s="26" t="s">
+      <c r="EQ20">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:147">
+      <c r="A21" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B21">
@@ -11296,9 +11371,12 @@
       <c r="EP21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:146">
-      <c r="A22" s="26" t="s">
+      <c r="EQ21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:147">
+      <c r="A22" s="32" t="s">
         <v>181</v>
       </c>
       <c r="B22">
@@ -11736,9 +11814,12 @@
       <c r="EP22">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:146">
-      <c r="A23" s="26" t="s">
+      <c r="EQ22">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:147">
+      <c r="A23" s="32" t="s">
         <v>182</v>
       </c>
       <c r="B23">
@@ -12176,9 +12257,12 @@
       <c r="EP23">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:146">
-      <c r="A24" s="26" t="s">
+      <c r="EQ23">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:147">
+      <c r="A24" s="32" t="s">
         <v>183</v>
       </c>
       <c r="B24">
@@ -12616,9 +12700,12 @@
       <c r="EP24">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:146">
-      <c r="A25" s="26" t="s">
+      <c r="EQ24">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:147">
+      <c r="A25" s="32" t="s">
         <v>184</v>
       </c>
       <c r="B25">
@@ -13056,9 +13143,12 @@
       <c r="EP25">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:146">
-      <c r="A26" s="26" t="s">
+      <c r="EQ25">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:147">
+      <c r="A26" s="32" t="s">
         <v>185</v>
       </c>
       <c r="B26">
@@ -13496,9 +13586,12 @@
       <c r="EP26">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:146">
-      <c r="A27" s="26" t="s">
+      <c r="EQ26">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:147">
+      <c r="A27" s="32" t="s">
         <v>186</v>
       </c>
       <c r="B27">
@@ -13936,9 +14029,12 @@
       <c r="EP27">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:146">
-      <c r="A28" s="26" t="s">
+      <c r="EQ27">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:147">
+      <c r="A28" s="32" t="s">
         <v>187</v>
       </c>
       <c r="B28">
@@ -14376,9 +14472,12 @@
       <c r="EP28">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:146">
-      <c r="A29" s="26" t="s">
+      <c r="EQ28">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:147">
+      <c r="A29" s="32" t="s">
         <v>188</v>
       </c>
       <c r="B29">
@@ -14816,9 +14915,12 @@
       <c r="EP29">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:146">
-      <c r="A30" s="26" t="s">
+      <c r="EQ29">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:147">
+      <c r="A30" s="32" t="s">
         <v>189</v>
       </c>
       <c r="B30">
@@ -15256,9 +15358,12 @@
       <c r="EP30">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:146">
-      <c r="A31" s="26" t="s">
+      <c r="EQ30">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:147">
+      <c r="A31" s="32" t="s">
         <v>190</v>
       </c>
       <c r="B31">
@@ -15696,9 +15801,12 @@
       <c r="EP31">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:146">
-      <c r="A32" s="26" t="s">
+      <c r="EQ31">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:147">
+      <c r="A32" s="32" t="s">
         <v>191</v>
       </c>
       <c r="B32">
@@ -16136,9 +16244,12 @@
       <c r="EP32">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:146">
-      <c r="A33" s="26" t="s">
+      <c r="EQ32">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:147">
+      <c r="A33" s="32" t="s">
         <v>192</v>
       </c>
       <c r="B33">
@@ -16576,9 +16687,12 @@
       <c r="EP33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:146">
-      <c r="A34" s="26" t="s">
+      <c r="EQ33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:147">
+      <c r="A34" s="32" t="s">
         <v>193</v>
       </c>
       <c r="B34">
@@ -17016,9 +17130,12 @@
       <c r="EP34">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:146">
-      <c r="A35" s="26" t="s">
+      <c r="EQ34">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:147">
+      <c r="A35" s="32" t="s">
         <v>194</v>
       </c>
       <c r="B35">
@@ -17456,9 +17573,12 @@
       <c r="EP35">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:146">
-      <c r="A36" s="26" t="s">
+      <c r="EQ35">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:147">
+      <c r="A36" s="32" t="s">
         <v>195</v>
       </c>
       <c r="B36">
@@ -17896,9 +18016,12 @@
       <c r="EP36">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:146">
-      <c r="A37" s="26" t="s">
+      <c r="EQ36">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:147">
+      <c r="A37" s="32" t="s">
         <v>196</v>
       </c>
       <c r="B37">
@@ -18336,9 +18459,12 @@
       <c r="EP37">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:146">
-      <c r="A38" s="26" t="s">
+      <c r="EQ37">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:147">
+      <c r="A38" s="32" t="s">
         <v>197</v>
       </c>
       <c r="B38">
@@ -18776,9 +18902,12 @@
       <c r="EP38">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:146">
-      <c r="A39" s="26" t="s">
+      <c r="EQ38">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:147">
+      <c r="A39" s="32" t="s">
         <v>198</v>
       </c>
       <c r="B39">
@@ -19216,9 +19345,12 @@
       <c r="EP39">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:146">
-      <c r="A40" s="26" t="s">
+      <c r="EQ39">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:147">
+      <c r="A40" s="32" t="s">
         <v>199</v>
       </c>
       <c r="B40">
@@ -19656,9 +19788,12 @@
       <c r="EP40">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:146">
-      <c r="A41" s="26" t="s">
+      <c r="EQ40">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:147">
+      <c r="A41" s="32" t="s">
         <v>200</v>
       </c>
       <c r="B41">
@@ -20096,9 +20231,12 @@
       <c r="EP41">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:146">
-      <c r="A42" s="26" t="s">
+      <c r="EQ41">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:147">
+      <c r="A42" s="32" t="s">
         <v>201</v>
       </c>
       <c r="B42">
@@ -20536,9 +20674,12 @@
       <c r="EP42">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:146">
-      <c r="A43" s="26" t="s">
+      <c r="EQ42">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:147">
+      <c r="A43" s="32" t="s">
         <v>202</v>
       </c>
       <c r="B43">
@@ -20976,9 +21117,12 @@
       <c r="EP43">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:146">
-      <c r="A44" s="26" t="s">
+      <c r="EQ43">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:147">
+      <c r="A44" s="32" t="s">
         <v>203</v>
       </c>
       <c r="B44">
@@ -21416,9 +21560,12 @@
       <c r="EP44">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:146">
-      <c r="A45" s="26" t="s">
+      <c r="EQ44">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:147">
+      <c r="A45" s="32" t="s">
         <v>204</v>
       </c>
       <c r="B45">
@@ -21856,9 +22003,12 @@
       <c r="EP45">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:146">
-      <c r="A46" s="26" t="s">
+      <c r="EQ45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:147">
+      <c r="A46" s="32" t="s">
         <v>205</v>
       </c>
       <c r="B46">
@@ -22296,9 +22446,12 @@
       <c r="EP46">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:146">
-      <c r="A47" s="26" t="s">
+      <c r="EQ46">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:147">
+      <c r="A47" s="32" t="s">
         <v>206</v>
       </c>
       <c r="B47">
@@ -22736,9 +22889,12 @@
       <c r="EP47">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:146">
-      <c r="A48" s="26" t="s">
+      <c r="EQ47">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:147">
+      <c r="A48" s="32" t="s">
         <v>207</v>
       </c>
       <c r="B48">
@@ -23176,9 +23332,12 @@
       <c r="EP48">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:146">
-      <c r="A49" s="26" t="s">
+      <c r="EQ48">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:147">
+      <c r="A49" s="32" t="s">
         <v>208</v>
       </c>
       <c r="B49">
@@ -23616,9 +23775,12 @@
       <c r="EP49">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:146">
-      <c r="A50" s="26" t="s">
+      <c r="EQ49">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:147">
+      <c r="A50" s="32" t="s">
         <v>209</v>
       </c>
       <c r="B50">
@@ -24056,9 +24218,12 @@
       <c r="EP50">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:146">
-      <c r="A51" s="26" t="s">
+      <c r="EQ50">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:147">
+      <c r="A51" s="32" t="s">
         <v>210</v>
       </c>
       <c r="B51">
@@ -24496,9 +24661,12 @@
       <c r="EP51">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:146">
-      <c r="A52" s="26" t="s">
+      <c r="EQ51">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:147">
+      <c r="A52" s="32" t="s">
         <v>211</v>
       </c>
       <c r="B52">
@@ -24936,9 +25104,12 @@
       <c r="EP52">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:146">
-      <c r="A53" s="26" t="s">
+      <c r="EQ52">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:147">
+      <c r="A53" s="32" t="s">
         <v>212</v>
       </c>
       <c r="B53">
@@ -25376,9 +25547,12 @@
       <c r="EP53">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:146">
-      <c r="A54" s="26" t="s">
+      <c r="EQ53">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:147">
+      <c r="A54" s="32" t="s">
         <v>213</v>
       </c>
       <c r="B54">
@@ -25816,9 +25990,12 @@
       <c r="EP54">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:146">
-      <c r="A55" s="26" t="s">
+      <c r="EQ54">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:147">
+      <c r="A55" s="32" t="s">
         <v>214</v>
       </c>
       <c r="B55">
@@ -26256,9 +26433,12 @@
       <c r="EP55">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:146">
-      <c r="A56" s="26" t="s">
+      <c r="EQ55">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:147">
+      <c r="A56" s="32" t="s">
         <v>215</v>
       </c>
       <c r="B56">
@@ -26696,9 +26876,12 @@
       <c r="EP56">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:146">
-      <c r="A57" s="26" t="s">
+      <c r="EQ56">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:147">
+      <c r="A57" s="32" t="s">
         <v>216</v>
       </c>
       <c r="B57">
@@ -27136,9 +27319,12 @@
       <c r="EP57">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:146">
-      <c r="A58" s="26" t="s">
+      <c r="EQ57">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:147">
+      <c r="A58" s="32" t="s">
         <v>217</v>
       </c>
       <c r="B58">
@@ -27576,9 +27762,12 @@
       <c r="EP58">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:146">
-      <c r="A59" s="26" t="s">
+      <c r="EQ58">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:147">
+      <c r="A59" s="32" t="s">
         <v>218</v>
       </c>
       <c r="B59">
@@ -28016,9 +28205,12 @@
       <c r="EP59">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:146">
-      <c r="A60" s="26" t="s">
+      <c r="EQ59">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:147">
+      <c r="A60" s="32" t="s">
         <v>219</v>
       </c>
       <c r="B60">
@@ -28456,9 +28648,12 @@
       <c r="EP60">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:146">
-      <c r="A61" s="26" t="s">
+      <c r="EQ60">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:147">
+      <c r="A61" s="32" t="s">
         <v>220</v>
       </c>
       <c r="B61">
@@ -28896,9 +29091,12 @@
       <c r="EP61">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:146">
-      <c r="A62" s="26" t="s">
+      <c r="EQ61">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:147">
+      <c r="A62" s="32" t="s">
         <v>221</v>
       </c>
       <c r="B62">
@@ -29336,9 +29534,12 @@
       <c r="EP62">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:146">
-      <c r="A63" s="26" t="s">
+      <c r="EQ62">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:147">
+      <c r="A63" s="32" t="s">
         <v>222</v>
       </c>
       <c r="B63">
@@ -29776,9 +29977,12 @@
       <c r="EP63">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:146">
-      <c r="A64" s="26" t="s">
+      <c r="EQ63">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:147">
+      <c r="A64" s="32" t="s">
         <v>223</v>
       </c>
       <c r="B64">
@@ -30216,9 +30420,12 @@
       <c r="EP64">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:146">
-      <c r="A65" s="26" t="s">
+      <c r="EQ64">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:147">
+      <c r="A65" s="32" t="s">
         <v>224</v>
       </c>
       <c r="B65">
@@ -30656,9 +30863,12 @@
       <c r="EP65">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:146">
-      <c r="A66" s="26" t="s">
+      <c r="EQ65">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:147">
+      <c r="A66" s="32" t="s">
         <v>225</v>
       </c>
       <c r="B66">
@@ -31096,9 +31306,12 @@
       <c r="EP66">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:146">
-      <c r="A67" s="26" t="s">
+      <c r="EQ66">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:147">
+      <c r="A67" s="32" t="s">
         <v>226</v>
       </c>
       <c r="B67">
@@ -31536,9 +31749,12 @@
       <c r="EP67">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:146">
-      <c r="A68" s="26" t="s">
+      <c r="EQ67">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:147">
+      <c r="A68" s="32" t="s">
         <v>227</v>
       </c>
       <c r="B68">
@@ -31976,9 +32192,12 @@
       <c r="EP68">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:146">
-      <c r="A69" s="26" t="s">
+      <c r="EQ68">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:147">
+      <c r="A69" s="32" t="s">
         <v>228</v>
       </c>
       <c r="B69">
@@ -32416,9 +32635,12 @@
       <c r="EP69">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:146">
-      <c r="A70" s="26" t="s">
+      <c r="EQ69">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:147">
+      <c r="A70" s="32" t="s">
         <v>229</v>
       </c>
       <c r="B70">
@@ -32856,9 +33078,12 @@
       <c r="EP70">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:146">
-      <c r="A71" s="26" t="s">
+      <c r="EQ70">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:147">
+      <c r="A71" s="32" t="s">
         <v>230</v>
       </c>
       <c r="B71">
@@ -33296,9 +33521,12 @@
       <c r="EP71">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:146">
-      <c r="A72" s="26" t="s">
+      <c r="EQ71">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:147">
+      <c r="A72" s="32" t="s">
         <v>231</v>
       </c>
       <c r="B72">
@@ -33736,9 +33964,12 @@
       <c r="EP72">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:146">
-      <c r="A73" s="26" t="s">
+      <c r="EQ72">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:147">
+      <c r="A73" s="32" t="s">
         <v>232</v>
       </c>
       <c r="B73">
@@ -34176,9 +34407,12 @@
       <c r="EP73">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:146">
-      <c r="A74" s="26" t="s">
+      <c r="EQ73">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:147">
+      <c r="A74" s="32" t="s">
         <v>233</v>
       </c>
       <c r="B74">
@@ -34616,9 +34850,12 @@
       <c r="EP74">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:146">
-      <c r="A75" s="26" t="s">
+      <c r="EQ74">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:147">
+      <c r="A75" s="32" t="s">
         <v>234</v>
       </c>
       <c r="B75">
@@ -35056,9 +35293,12 @@
       <c r="EP75">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:146">
-      <c r="A76" s="26" t="s">
+      <c r="EQ75">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:147">
+      <c r="A76" s="32" t="s">
         <v>235</v>
       </c>
       <c r="B76">
@@ -35496,9 +35736,12 @@
       <c r="EP76">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:146">
-      <c r="A77" s="26" t="s">
+      <c r="EQ76">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:147">
+      <c r="A77" s="32" t="s">
         <v>236</v>
       </c>
       <c r="B77">
@@ -35936,9 +36179,12 @@
       <c r="EP77">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:146">
-      <c r="A78" s="26" t="s">
+      <c r="EQ77">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:147">
+      <c r="A78" s="32" t="s">
         <v>237</v>
       </c>
       <c r="B78">
@@ -36376,9 +36622,12 @@
       <c r="EP78">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:146">
-      <c r="A79" s="26" t="s">
+      <c r="EQ78">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:147">
+      <c r="A79" s="32" t="s">
         <v>238</v>
       </c>
       <c r="B79">
@@ -36816,9 +37065,12 @@
       <c r="EP79">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:146">
-      <c r="A80" s="26" t="s">
+      <c r="EQ79">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:147">
+      <c r="A80" s="32" t="s">
         <v>239</v>
       </c>
       <c r="B80">
@@ -37256,9 +37508,12 @@
       <c r="EP80">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="1:146">
-      <c r="A81" s="26" t="s">
+      <c r="EQ80">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:147">
+      <c r="A81" s="32" t="s">
         <v>240</v>
       </c>
       <c r="B81">
@@ -37696,9 +37951,12 @@
       <c r="EP81">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:146">
-      <c r="A82" s="26" t="s">
+      <c r="EQ81">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:147">
+      <c r="A82" s="32" t="s">
         <v>241</v>
       </c>
       <c r="B82">
@@ -38136,9 +38394,12 @@
       <c r="EP82">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:146">
-      <c r="A83" s="26" t="s">
+      <c r="EQ82">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:147">
+      <c r="A83" s="32" t="s">
         <v>242</v>
       </c>
       <c r="B83">
@@ -38576,9 +38837,12 @@
       <c r="EP83">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:146">
-      <c r="A84" s="26" t="s">
+      <c r="EQ83">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:147">
+      <c r="A84" s="32" t="s">
         <v>243</v>
       </c>
       <c r="B84">
@@ -39016,9 +39280,12 @@
       <c r="EP84">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:146">
-      <c r="A85" s="26" t="s">
+      <c r="EQ84">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:147">
+      <c r="A85" s="32" t="s">
         <v>244</v>
       </c>
       <c r="B85">
@@ -39456,9 +39723,12 @@
       <c r="EP85">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:146">
-      <c r="A86" s="26" t="s">
+      <c r="EQ85">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:147">
+      <c r="A86" s="32" t="s">
         <v>245</v>
       </c>
       <c r="B86">
@@ -39896,9 +40166,12 @@
       <c r="EP86">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:146">
-      <c r="A87" s="26" t="s">
+      <c r="EQ86">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:147">
+      <c r="A87" s="32" t="s">
         <v>246</v>
       </c>
       <c r="C87">
@@ -40333,9 +40606,12 @@
       <c r="EP87">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:146">
-      <c r="A88" s="26" t="s">
+      <c r="EQ87">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:147">
+      <c r="A88" s="32" t="s">
         <v>247</v>
       </c>
       <c r="D88">
@@ -40767,9 +41043,12 @@
       <c r="EP88">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:146">
-      <c r="A89" s="26" t="s">
+      <c r="EQ88">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:147">
+      <c r="A89" s="32" t="s">
         <v>248</v>
       </c>
       <c r="E89">
@@ -41198,9 +41477,12 @@
       <c r="EP89">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:146">
-      <c r="A90" s="26" t="s">
+      <c r="EQ89">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:147">
+      <c r="A90" s="32" t="s">
         <v>249</v>
       </c>
       <c r="F90">
@@ -41626,9 +41908,12 @@
       <c r="EP90">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:146">
-      <c r="A91" s="26" t="s">
+      <c r="EQ90">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:147">
+      <c r="A91" s="32" t="s">
         <v>250</v>
       </c>
       <c r="G91">
@@ -42051,9 +42336,12 @@
       <c r="EP91">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:146">
-      <c r="A92" s="26" t="s">
+      <c r="EQ91">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:147">
+      <c r="A92" s="32" t="s">
         <v>251</v>
       </c>
       <c r="H92">
@@ -42473,9 +42761,12 @@
       <c r="EP92">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:146">
-      <c r="A93" s="26" t="s">
+      <c r="EQ92">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:147">
+      <c r="A93" s="32" t="s">
         <v>252</v>
       </c>
       <c r="I93">
@@ -42892,9 +43183,12 @@
       <c r="EP93">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:146">
-      <c r="A94" s="26" t="s">
+      <c r="EQ93">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:147">
+      <c r="A94" s="32" t="s">
         <v>253</v>
       </c>
       <c r="J94">
@@ -43308,9 +43602,12 @@
       <c r="EP94">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:146">
-      <c r="A95" s="26" t="s">
+      <c r="EQ94">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:147">
+      <c r="A95" s="32" t="s">
         <v>254</v>
       </c>
       <c r="K95">
@@ -43721,9 +44018,12 @@
       <c r="EP95">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:146">
-      <c r="A96" s="26" t="s">
+      <c r="EQ95">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:147">
+      <c r="A96" s="32" t="s">
         <v>255</v>
       </c>
       <c r="L96">
@@ -44131,9 +44431,12 @@
       <c r="EP96">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="97" spans="1:146">
-      <c r="A97" s="26" t="s">
+      <c r="EQ96">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:147">
+      <c r="A97" s="32" t="s">
         <v>256</v>
       </c>
       <c r="M97">
@@ -44538,9 +44841,12 @@
       <c r="EP97">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:146">
-      <c r="A98" s="26" t="s">
+      <c r="EQ97">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:147">
+      <c r="A98" s="32" t="s">
         <v>257</v>
       </c>
       <c r="N98">
@@ -44942,9 +45248,12 @@
       <c r="EP98">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:146">
-      <c r="A99" s="26" t="s">
+      <c r="EQ98">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:147">
+      <c r="A99" s="32" t="s">
         <v>258</v>
       </c>
       <c r="O99">
@@ -45343,9 +45652,12 @@
       <c r="EP99">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:146">
-      <c r="A100" s="26" t="s">
+      <c r="EQ99">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:147">
+      <c r="A100" s="32" t="s">
         <v>259</v>
       </c>
       <c r="P100">
@@ -45741,9 +46053,12 @@
       <c r="EP100">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:146">
-      <c r="A101" s="26" t="s">
+      <c r="EQ100">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:147">
+      <c r="A101" s="32" t="s">
         <v>260</v>
       </c>
       <c r="Q101">
@@ -46136,9 +46451,12 @@
       <c r="EP101">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:146">
-      <c r="A102" s="26" t="s">
+      <c r="EQ101">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:147">
+      <c r="A102" s="32" t="s">
         <v>261</v>
       </c>
       <c r="R102">
@@ -46528,9 +46846,12 @@
       <c r="EP102">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:146">
-      <c r="A103" s="26" t="s">
+      <c r="EQ102">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:147">
+      <c r="A103" s="32" t="s">
         <v>262</v>
       </c>
       <c r="S103">
@@ -46917,9 +47238,12 @@
       <c r="EP103">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:146">
-      <c r="A104" s="26" t="s">
+      <c r="EQ103">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:147">
+      <c r="A104" s="32" t="s">
         <v>263</v>
       </c>
       <c r="T104">
@@ -47303,9 +47627,12 @@
       <c r="EP104">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:146">
-      <c r="A105" s="26" t="s">
+      <c r="EQ104">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:147">
+      <c r="A105" s="32" t="s">
         <v>264</v>
       </c>
       <c r="U105">
@@ -47686,9 +48013,12 @@
       <c r="EP105">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:146">
-      <c r="A106" s="26" t="s">
+      <c r="EQ105">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:147">
+      <c r="A106" s="32" t="s">
         <v>265</v>
       </c>
       <c r="V106">
@@ -48066,9 +48396,12 @@
       <c r="EP106">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:146">
-      <c r="A107" s="26" t="s">
+      <c r="EQ106">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:147">
+      <c r="A107" s="32" t="s">
         <v>266</v>
       </c>
       <c r="W107">
@@ -48443,9 +48776,12 @@
       <c r="EP107">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:146">
-      <c r="A108" s="26" t="s">
+      <c r="EQ107">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:147">
+      <c r="A108" s="32" t="s">
         <v>267</v>
       </c>
       <c r="X108">
@@ -48817,9 +49153,12 @@
       <c r="EP108">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:146">
-      <c r="A109" s="26" t="s">
+      <c r="EQ108">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:147">
+      <c r="A109" s="32" t="s">
         <v>268</v>
       </c>
       <c r="Y109">
@@ -49188,9 +49527,12 @@
       <c r="EP109">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:146">
-      <c r="A110" s="26" t="s">
+      <c r="EQ109">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:147">
+      <c r="A110" s="32" t="s">
         <v>269</v>
       </c>
       <c r="Z110">
@@ -49556,9 +49898,12 @@
       <c r="EP110">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:146">
-      <c r="A111" s="26" t="s">
+      <c r="EQ110">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:147">
+      <c r="A111" s="32" t="s">
         <v>270</v>
       </c>
       <c r="AA111">
@@ -49921,9 +50266,12 @@
       <c r="EP111">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:146">
-      <c r="A112" s="26" t="s">
+      <c r="EQ111">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:147">
+      <c r="A112" s="32" t="s">
         <v>271</v>
       </c>
       <c r="AB112">
@@ -50283,9 +50631,12 @@
       <c r="EP112">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:146">
-      <c r="A113" s="26" t="s">
+      <c r="EQ112">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:147">
+      <c r="A113" s="32" t="s">
         <v>272</v>
       </c>
       <c r="AC113">
@@ -50642,9 +50993,12 @@
       <c r="EP113">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:146">
-      <c r="A114" s="26" t="s">
+      <c r="EQ113">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:147">
+      <c r="A114" s="32" t="s">
         <v>273</v>
       </c>
       <c r="AD114">
@@ -50998,9 +51352,12 @@
       <c r="EP114">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:146">
-      <c r="A115" s="26" t="s">
+      <c r="EQ114">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:147">
+      <c r="A115" s="32" t="s">
         <v>274</v>
       </c>
       <c r="AE115">
@@ -51351,9 +51708,12 @@
       <c r="EP115">
         <v>57</v>
       </c>
-    </row>
-    <row r="116" spans="1:146">
-      <c r="A116" s="26" t="s">
+      <c r="EQ115">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:147">
+      <c r="A116" s="32" t="s">
         <v>275</v>
       </c>
       <c r="AF116">
@@ -51701,9 +52061,12 @@
       <c r="EP116">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:146">
-      <c r="A117" s="26" t="s">
+      <c r="EQ116">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:147">
+      <c r="A117" s="32" t="s">
         <v>276</v>
       </c>
       <c r="AG117">
@@ -52048,9 +52411,12 @@
       <c r="EP117">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:146">
-      <c r="A118" s="26" t="s">
+      <c r="EQ117">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:147">
+      <c r="A118" s="32" t="s">
         <v>277</v>
       </c>
       <c r="AH118">
@@ -52392,9 +52758,12 @@
       <c r="EP118">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:146">
-      <c r="A119" s="26" t="s">
+      <c r="EQ118">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:147">
+      <c r="A119" s="32" t="s">
         <v>278</v>
       </c>
       <c r="AI119">
@@ -52733,9 +53102,12 @@
       <c r="EP119">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:146">
-      <c r="A120" s="26" t="s">
+      <c r="EQ119">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:147">
+      <c r="A120" s="32" t="s">
         <v>279</v>
       </c>
       <c r="AJ120">
@@ -53071,9 +53443,12 @@
       <c r="EP120">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:146">
-      <c r="A121" s="26" t="s">
+      <c r="EQ120">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:147">
+      <c r="A121" s="32" t="s">
         <v>280</v>
       </c>
       <c r="AK121">
@@ -53406,9 +53781,12 @@
       <c r="EP121">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:146">
-      <c r="A122" s="26" t="s">
+      <c r="EQ121">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:147">
+      <c r="A122" s="32" t="s">
         <v>281</v>
       </c>
       <c r="AL122">
@@ -53738,9 +54116,12 @@
       <c r="EP122">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:146">
-      <c r="A123" s="26" t="s">
+      <c r="EQ122">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:147">
+      <c r="A123" s="32" t="s">
         <v>282</v>
       </c>
       <c r="AM123">
@@ -54067,9 +54448,12 @@
       <c r="EP123">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="124" spans="1:146">
-      <c r="A124" s="26" t="s">
+      <c r="EQ123">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:147">
+      <c r="A124" s="32" t="s">
         <v>283</v>
       </c>
       <c r="AN124">
@@ -54393,9 +54777,12 @@
       <c r="EP124">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="125" spans="1:146">
-      <c r="A125" s="26" t="s">
+      <c r="EQ124">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:147">
+      <c r="A125" s="32" t="s">
         <v>284</v>
       </c>
       <c r="AO125">
@@ -54716,9 +55103,12 @@
       <c r="EP125">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:146">
-      <c r="A126" s="26" t="s">
+      <c r="EQ125">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:147">
+      <c r="A126" s="32" t="s">
         <v>285</v>
       </c>
       <c r="AP126">
@@ -55036,9 +55426,12 @@
       <c r="EP126">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:146">
-      <c r="A127" s="26" t="s">
+      <c r="EQ126">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:147">
+      <c r="A127" s="32" t="s">
         <v>286</v>
       </c>
       <c r="AQ127">
@@ -55353,9 +55746,12 @@
       <c r="EP127">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:146">
-      <c r="A128" s="26" t="s">
+      <c r="EQ127">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:147">
+      <c r="A128" s="32" t="s">
         <v>287</v>
       </c>
       <c r="AR128">
@@ -55667,9 +56063,12 @@
       <c r="EP128">
         <v>63.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:146">
-      <c r="A129" s="26" t="s">
+      <c r="EQ128">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:147">
+      <c r="A129" s="32" t="s">
         <v>288</v>
       </c>
       <c r="AS129">
@@ -55978,9 +56377,12 @@
       <c r="EP129">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:146">
-      <c r="A130" s="26" t="s">
+      <c r="EQ129">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:147">
+      <c r="A130" s="32" t="s">
         <v>289</v>
       </c>
       <c r="AT130">
@@ -56286,9 +56688,12 @@
       <c r="EP130">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="131" spans="1:146">
-      <c r="A131" s="26" t="s">
+      <c r="EQ130">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:147">
+      <c r="A131" s="32" t="s">
         <v>290</v>
       </c>
       <c r="AU131">
@@ -56591,9 +56996,12 @@
       <c r="EP131">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:146">
-      <c r="A132" s="26" t="s">
+      <c r="EQ131">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:147">
+      <c r="A132" s="32" t="s">
         <v>291</v>
       </c>
       <c r="AV132">
@@ -56893,9 +57301,12 @@
       <c r="EP132">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:146">
-      <c r="A133" s="26" t="s">
+      <c r="EQ132">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:147">
+      <c r="A133" s="32" t="s">
         <v>292</v>
       </c>
       <c r="AW133">
@@ -57192,9 +57603,12 @@
       <c r="EP133">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:146">
-      <c r="A134" s="26" t="s">
+      <c r="EQ133">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:147">
+      <c r="A134" s="32" t="s">
         <v>293</v>
       </c>
       <c r="AX134">
@@ -57488,9 +57902,12 @@
       <c r="EP134">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="135" spans="1:146">
-      <c r="A135" s="26" t="s">
+      <c r="EQ134">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:147">
+      <c r="A135" s="32" t="s">
         <v>294</v>
       </c>
       <c r="AY135">
@@ -57781,9 +58198,12 @@
       <c r="EP135">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:146">
-      <c r="A136" s="26" t="s">
+      <c r="EQ135">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:147">
+      <c r="A136" s="32" t="s">
         <v>295</v>
       </c>
       <c r="AZ136">
@@ -58071,9 +58491,12 @@
       <c r="EP136">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="137" spans="1:146">
-      <c r="A137" s="26" t="s">
+      <c r="EQ136">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:147">
+      <c r="A137" s="32" t="s">
         <v>296</v>
       </c>
       <c r="BA137">
@@ -58358,9 +58781,12 @@
       <c r="EP137">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="138" spans="1:146">
-      <c r="A138" s="26" t="s">
+      <c r="EQ137">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:147">
+      <c r="A138" s="32" t="s">
         <v>297</v>
       </c>
       <c r="BB138">
@@ -58642,9 +59068,12 @@
       <c r="EP138">
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:146">
-      <c r="A139" s="26" t="s">
+      <c r="EQ138">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:147">
+      <c r="A139" s="32" t="s">
         <v>298</v>
       </c>
       <c r="BC139">
@@ -58923,9 +59352,12 @@
       <c r="EP139">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:146">
-      <c r="A140" s="26" t="s">
+      <c r="EQ139">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:147">
+      <c r="A140" s="32" t="s">
         <v>299</v>
       </c>
       <c r="BD140">
@@ -59201,9 +59633,12 @@
       <c r="EP140">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:146">
-      <c r="A141" s="26" t="s">
+      <c r="EQ140">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:147">
+      <c r="A141" s="32" t="s">
         <v>300</v>
       </c>
       <c r="BE141">
@@ -59476,9 +59911,12 @@
       <c r="EP141">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="142" spans="1:146">
-      <c r="A142" s="26" t="s">
+      <c r="EQ141">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="142" spans="1:147">
+      <c r="A142" s="32" t="s">
         <v>301</v>
       </c>
       <c r="BF142">
@@ -59748,9 +60186,12 @@
       <c r="EP142">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:146">
-      <c r="A143" s="26" t="s">
+      <c r="EQ142">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:147">
+      <c r="A143" s="32" t="s">
         <v>302</v>
       </c>
       <c r="BG143">
@@ -60017,9 +60458,12 @@
       <c r="EP143">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:146">
-      <c r="A144" s="26" t="s">
+      <c r="EQ143">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:147">
+      <c r="A144" s="32" t="s">
         <v>303</v>
       </c>
       <c r="BH144">
@@ -60283,9 +60727,12 @@
       <c r="EP144">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="145" spans="1:146">
-      <c r="A145" s="26" t="s">
+      <c r="EQ144">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:147">
+      <c r="A145" s="32" t="s">
         <v>304</v>
       </c>
       <c r="BI145">
@@ -60546,9 +60993,12 @@
       <c r="EP145">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="146" spans="1:146">
-      <c r="A146" s="26" t="s">
+      <c r="EQ145">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:147">
+      <c r="A146" s="32" t="s">
         <v>305</v>
       </c>
       <c r="BJ146">
@@ -60806,9 +61256,12 @@
       <c r="EP146">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="147" spans="1:146">
-      <c r="A147" s="26" t="s">
+      <c r="EQ146">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:147">
+      <c r="A147" s="32" t="s">
         <v>306</v>
       </c>
       <c r="BK147">
@@ -61063,9 +61516,12 @@
       <c r="EP147">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="148" spans="1:146">
-      <c r="A148" s="26" t="s">
+      <c r="EQ147">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:147">
+      <c r="A148" s="32" t="s">
         <v>307</v>
       </c>
       <c r="BL148">
@@ -61317,9 +61773,12 @@
       <c r="EP148">
         <v>73</v>
       </c>
-    </row>
-    <row r="149" spans="1:146">
-      <c r="A149" s="26" t="s">
+      <c r="EQ148">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:147">
+      <c r="A149" s="32" t="s">
         <v>308</v>
       </c>
       <c r="BM149">
@@ -61568,9 +62027,12 @@
       <c r="EP149">
         <v>73</v>
       </c>
-    </row>
-    <row r="150" spans="1:146">
-      <c r="A150" s="26" t="s">
+      <c r="EQ149">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:147">
+      <c r="A150" s="32" t="s">
         <v>309</v>
       </c>
       <c r="BN150">
@@ -61816,9 +62278,12 @@
       <c r="EP150">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:146">
-      <c r="A151" s="26" t="s">
+      <c r="EQ150">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:147">
+      <c r="A151" s="32" t="s">
         <v>310</v>
       </c>
       <c r="BO151">
@@ -62061,9 +62526,12 @@
       <c r="EP151">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:146">
-      <c r="A152" s="26" t="s">
+      <c r="EQ151">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:147">
+      <c r="A152" s="32" t="s">
         <v>311</v>
       </c>
       <c r="BP152">
@@ -62303,9 +62771,12 @@
       <c r="EP152">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:146">
-      <c r="A153" s="26" t="s">
+      <c r="EQ152">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:147">
+      <c r="A153" s="32" t="s">
         <v>312</v>
       </c>
       <c r="BQ153">
@@ -62542,9 +63013,12 @@
       <c r="EP153">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:146">
-      <c r="A154" s="26" t="s">
+      <c r="EQ153">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:147">
+      <c r="A154" s="32" t="s">
         <v>313</v>
       </c>
       <c r="BR154">
@@ -62778,9 +63252,12 @@
       <c r="EP154">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="155" spans="1:146">
-      <c r="A155" s="26" t="s">
+      <c r="EQ154">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:147">
+      <c r="A155" s="32" t="s">
         <v>314</v>
       </c>
       <c r="BS155">
@@ -63011,9 +63488,12 @@
       <c r="EP155">
         <v>77.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:146">
-      <c r="A156" s="26" t="s">
+      <c r="EQ155">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:147">
+      <c r="A156" s="32" t="s">
         <v>315</v>
       </c>
       <c r="BT156">
@@ -63241,9 +63721,12 @@
       <c r="EP156">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="157" spans="1:146">
-      <c r="A157" s="26" t="s">
+      <c r="EQ156">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:147">
+      <c r="A157" s="32" t="s">
         <v>316</v>
       </c>
       <c r="BU157">
@@ -63468,9 +63951,12 @@
       <c r="EP157">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="158" spans="1:146">
-      <c r="A158" s="26" t="s">
+      <c r="EQ157">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:147">
+      <c r="A158" s="32" t="s">
         <v>317</v>
       </c>
       <c r="BV158">
@@ -63692,9 +64178,12 @@
       <c r="EP158">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:146">
-      <c r="A159" s="26" t="s">
+      <c r="EQ158">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:147">
+      <c r="A159" s="32" t="s">
         <v>318</v>
       </c>
       <c r="BW159">
@@ -63913,9 +64402,12 @@
       <c r="EP159">
         <v>81.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:146">
-      <c r="A160" s="26" t="s">
+      <c r="EQ159">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:147">
+      <c r="A160" s="32" t="s">
         <v>319</v>
       </c>
       <c r="BX160">
@@ -64131,9 +64623,12 @@
       <c r="EP160">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="161" spans="1:146">
-      <c r="A161" s="26" t="s">
+      <c r="EQ160">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:147">
+      <c r="A161" s="32" t="s">
         <v>320</v>
       </c>
       <c r="BY161">
@@ -64346,9 +64841,12 @@
       <c r="EP161">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="162" spans="1:146">
-      <c r="A162" s="26" t="s">
+      <c r="EQ161">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:147">
+      <c r="A162" s="32" t="s">
         <v>321</v>
       </c>
       <c r="BZ162">
@@ -64558,9 +65056,12 @@
       <c r="EP162">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:146">
-      <c r="A163" s="26" t="s">
+      <c r="EQ162">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:147">
+      <c r="A163" s="32" t="s">
         <v>322</v>
       </c>
       <c r="CA163">
@@ -64767,9 +65268,12 @@
       <c r="EP163">
         <v>84.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:146">
-      <c r="A164" s="26" t="s">
+      <c r="EQ163">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:147">
+      <c r="A164" s="32" t="s">
         <v>323</v>
       </c>
       <c r="CB164">
@@ -64973,9 +65477,12 @@
       <c r="EP164">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="165" spans="1:146">
-      <c r="A165" s="26" t="s">
+      <c r="EQ164">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:147">
+      <c r="A165" s="32" t="s">
         <v>324</v>
       </c>
       <c r="CC165">
@@ -65176,9 +65683,12 @@
       <c r="EP165">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:146">
-      <c r="A166" s="26" t="s">
+      <c r="EQ165">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:147">
+      <c r="A166" s="32" t="s">
         <v>325</v>
       </c>
       <c r="CD166">
@@ -65376,9 +65886,12 @@
       <c r="EP166">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:146">
-      <c r="A167" s="26" t="s">
+      <c r="EQ166">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:147">
+      <c r="A167" s="32" t="s">
         <v>326</v>
       </c>
       <c r="CE167">
@@ -65573,9 +66086,12 @@
       <c r="EP167">
         <v>91.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:146">
-      <c r="A168" s="26" t="s">
+      <c r="EQ167">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:147">
+      <c r="A168" s="32" t="s">
         <v>327</v>
       </c>
       <c r="CF168">
@@ -65767,9 +66283,12 @@
       <c r="EP168">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:146">
-      <c r="A169" s="26" t="s">
+      <c r="EQ168">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:147">
+      <c r="A169" s="32" t="s">
         <v>328</v>
       </c>
       <c r="CG169">
@@ -65958,9 +66477,12 @@
       <c r="EP169">
         <v>95</v>
       </c>
-    </row>
-    <row r="170" spans="1:146">
-      <c r="A170" s="26" t="s">
+      <c r="EQ169">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:147">
+      <c r="A170" s="32" t="s">
         <v>329</v>
       </c>
       <c r="CH170">
@@ -66146,9 +66668,12 @@
       <c r="EP170">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:146">
-      <c r="A171" s="26" t="s">
+      <c r="EQ170">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:147">
+      <c r="A171" s="32" t="s">
         <v>330</v>
       </c>
       <c r="CI171">
@@ -66331,9 +66856,12 @@
       <c r="EP171">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:146">
-      <c r="A172" s="26" t="s">
+      <c r="EQ171">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:147">
+      <c r="A172" s="32" t="s">
         <v>331</v>
       </c>
       <c r="CJ172">
@@ -66513,9 +67041,12 @@
       <c r="EP172">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="173" spans="1:146">
-      <c r="A173" s="26" t="s">
+      <c r="EQ172">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:147">
+      <c r="A173" s="32" t="s">
         <v>332</v>
       </c>
       <c r="CK173">
@@ -66692,9 +67223,12 @@
       <c r="EP173">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="174" spans="1:146">
-      <c r="A174" s="26" t="s">
+      <c r="EQ173">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:147">
+      <c r="A174" s="32" t="s">
         <v>333</v>
       </c>
       <c r="CL174">
@@ -66868,9 +67402,12 @@
       <c r="EP174">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:146">
-      <c r="A175" s="26" t="s">
+      <c r="EQ174">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:147">
+      <c r="A175" s="32" t="s">
         <v>334</v>
       </c>
       <c r="CM175">
@@ -67041,9 +67578,12 @@
       <c r="EP175">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="176" spans="1:146">
-      <c r="A176" s="26" t="s">
+      <c r="EQ175">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:147">
+      <c r="A176" s="32" t="s">
         <v>335</v>
       </c>
       <c r="CN176">
@@ -67211,9 +67751,12 @@
       <c r="EP176">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:146">
-      <c r="A177" s="26" t="s">
+      <c r="EQ176">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:147">
+      <c r="A177" s="32" t="s">
         <v>336</v>
       </c>
       <c r="CO177">
@@ -67378,9 +67921,12 @@
       <c r="EP177">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:146">
-      <c r="A178" s="26" t="s">
+      <c r="EQ177">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:147">
+      <c r="A178" s="32" t="s">
         <v>337</v>
       </c>
       <c r="CP178">
@@ -67542,9 +68088,12 @@
       <c r="EP178">
         <v>107.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:146">
-      <c r="A179" s="26" t="s">
+      <c r="EQ178">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:147">
+      <c r="A179" s="32" t="s">
         <v>338</v>
       </c>
       <c r="CQ179">
@@ -67703,9 +68252,12 @@
       <c r="EP179">
         <v>105.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:146">
-      <c r="A180" s="26" t="s">
+      <c r="EQ179">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:147">
+      <c r="A180" s="32" t="s">
         <v>339</v>
       </c>
       <c r="CR180">
@@ -67861,9 +68413,12 @@
       <c r="EP180">
         <v>103</v>
       </c>
-    </row>
-    <row r="181" spans="1:146">
-      <c r="A181" s="26" t="s">
+      <c r="EQ180">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:147">
+      <c r="A181" s="32" t="s">
         <v>340</v>
       </c>
       <c r="CS181">
@@ -68016,9 +68571,12 @@
       <c r="EP181">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:146">
-      <c r="A182" s="26" t="s">
+      <c r="EQ181">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:147">
+      <c r="A182" s="32" t="s">
         <v>341</v>
       </c>
       <c r="CT182">
@@ -68168,9 +68726,12 @@
       <c r="EP182">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:146">
-      <c r="A183" s="26" t="s">
+      <c r="EQ182">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:147">
+      <c r="A183" s="32" t="s">
         <v>342</v>
       </c>
       <c r="CU183">
@@ -68317,9 +68878,12 @@
       <c r="EP183">
         <v>102.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:146">
-      <c r="A184" s="26" t="s">
+      <c r="EQ183">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:147">
+      <c r="A184" s="32" t="s">
         <v>343</v>
       </c>
       <c r="CV184">
@@ -68463,9 +69027,12 @@
       <c r="EP184">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:146">
-      <c r="A185" s="26" t="s">
+      <c r="EQ184">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:147">
+      <c r="A185" s="32" t="s">
         <v>344</v>
       </c>
       <c r="CW185">
@@ -68606,9 +69173,12 @@
       <c r="EP185">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:146">
-      <c r="A186" s="26" t="s">
+      <c r="EQ185">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:147">
+      <c r="A186" s="32" t="s">
         <v>345</v>
       </c>
       <c r="CX186">
@@ -68746,9 +69316,12 @@
       <c r="EP186">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:146">
-      <c r="A187" s="26" t="s">
+      <c r="EQ186">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:147">
+      <c r="A187" s="32" t="s">
         <v>346</v>
       </c>
       <c r="CY187">
@@ -68883,9 +69456,12 @@
       <c r="EP187">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:146">
-      <c r="A188" s="26" t="s">
+      <c r="EQ187">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:147">
+      <c r="A188" s="32" t="s">
         <v>347</v>
       </c>
       <c r="CZ188">
@@ -69017,9 +69593,12 @@
       <c r="EP188">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:146">
-      <c r="A189" s="26" t="s">
+      <c r="EQ188">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:147">
+      <c r="A189" s="32" t="s">
         <v>348</v>
       </c>
       <c r="DA189">
@@ -69148,9 +69727,12 @@
       <c r="EP189">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:146">
-      <c r="A190" s="26" t="s">
+      <c r="EQ189">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:147">
+      <c r="A190" s="32" t="s">
         <v>349</v>
       </c>
       <c r="DB190">
@@ -69276,9 +69858,12 @@
       <c r="EP190">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="191" spans="1:146">
-      <c r="A191" s="26" t="s">
+      <c r="EQ190">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:147">
+      <c r="A191" s="32" t="s">
         <v>350</v>
       </c>
       <c r="DC191">
@@ -69401,9 +69986,12 @@
       <c r="EP191">
         <v>95.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:146">
-      <c r="A192" s="26" t="s">
+      <c r="EQ191">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:147">
+      <c r="A192" s="32" t="s">
         <v>351</v>
       </c>
       <c r="DD192">
@@ -69523,9 +70111,12 @@
       <c r="EP192">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="193" spans="1:146">
-      <c r="A193" s="26" t="s">
+      <c r="EQ192">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:147">
+      <c r="A193" s="32" t="s">
         <v>352</v>
       </c>
       <c r="DE193">
@@ -69642,9 +70233,12 @@
       <c r="EP193">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="194" spans="1:146">
-      <c r="A194" s="26" t="s">
+      <c r="EQ193">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:147">
+      <c r="A194" s="32" t="s">
         <v>353</v>
       </c>
       <c r="DF194">
@@ -69758,9 +70352,12 @@
       <c r="EP194">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="195" spans="1:146">
-      <c r="A195" s="26" t="s">
+      <c r="EQ194">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:147">
+      <c r="A195" s="32" t="s">
         <v>354</v>
       </c>
       <c r="DG195">
@@ -69871,9 +70468,12 @@
       <c r="EP195">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:146">
-      <c r="A196" s="26" t="s">
+      <c r="EQ195">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:147">
+      <c r="A196" s="32" t="s">
         <v>355</v>
       </c>
       <c r="DH196">
@@ -69981,9 +70581,12 @@
       <c r="EP196">
         <v>93</v>
       </c>
-    </row>
-    <row r="197" spans="1:146">
-      <c r="A197" s="26" t="s">
+      <c r="EQ196">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:147">
+      <c r="A197" s="32" t="s">
         <v>356</v>
       </c>
       <c r="DI197">
@@ -70088,9 +70691,12 @@
       <c r="EP197">
         <v>94</v>
       </c>
-    </row>
-    <row r="198" spans="1:146">
-      <c r="A198" s="26" t="s">
+      <c r="EQ197">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:147">
+      <c r="A198" s="32" t="s">
         <v>357</v>
       </c>
       <c r="DJ198">
@@ -70192,9 +70798,12 @@
       <c r="EP198">
         <v>94</v>
       </c>
-    </row>
-    <row r="199" spans="1:146">
-      <c r="A199" s="26" t="s">
+      <c r="EQ198">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:147">
+      <c r="A199" s="32" t="s">
         <v>358</v>
       </c>
       <c r="DK199">
@@ -70293,9 +70902,12 @@
       <c r="EP199">
         <v>95.2</v>
       </c>
-    </row>
-    <row r="200" spans="1:146">
-      <c r="A200" s="26" t="s">
+      <c r="EQ199">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:147">
+      <c r="A200" s="32" t="s">
         <v>359</v>
       </c>
       <c r="DL200">
@@ -70391,9 +71003,12 @@
       <c r="EP200">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="201" spans="1:146">
-      <c r="A201" s="26" t="s">
+      <c r="EQ200">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:147">
+      <c r="A201" s="32" t="s">
         <v>360</v>
       </c>
       <c r="DM201">
@@ -70486,9 +71101,12 @@
       <c r="EP201">
         <v>100</v>
       </c>
-    </row>
-    <row r="202" spans="1:146">
-      <c r="A202" s="26" t="s">
+      <c r="EQ201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:147">
+      <c r="A202" s="32" t="s">
         <v>361</v>
       </c>
       <c r="DN202">
@@ -70578,9 +71196,12 @@
       <c r="EP202">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:146">
-      <c r="A203" s="26" t="s">
+      <c r="EQ202">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:147">
+      <c r="A203" s="32" t="s">
         <v>362</v>
       </c>
       <c r="DO203">
@@ -70667,9 +71288,12 @@
       <c r="EP203">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="204" spans="1:146">
-      <c r="A204" s="26" t="s">
+      <c r="EQ203">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:147">
+      <c r="A204" s="32" t="s">
         <v>363</v>
       </c>
       <c r="DP204">
@@ -70753,9 +71377,12 @@
       <c r="EP204">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="205" spans="1:146">
-      <c r="A205" s="26" t="s">
+      <c r="EQ204">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:147">
+      <c r="A205" s="32" t="s">
         <v>364</v>
       </c>
       <c r="DQ205">
@@ -70836,9 +71463,12 @@
       <c r="EP205">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:146">
-      <c r="A206" s="26" t="s">
+      <c r="EQ205">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:147">
+      <c r="A206" s="32" t="s">
         <v>365</v>
       </c>
       <c r="DR206">
@@ -70916,9 +71546,12 @@
       <c r="EP206">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:146">
-      <c r="A207" s="26" t="s">
+      <c r="EQ206">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:147">
+      <c r="A207" s="32" t="s">
         <v>366</v>
       </c>
       <c r="DS207">
@@ -70993,9 +71626,12 @@
       <c r="EP207">
         <v>112.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:146">
-      <c r="A208" s="26" t="s">
+      <c r="EQ207">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:147">
+      <c r="A208" s="32" t="s">
         <v>367</v>
       </c>
       <c r="DT208">
@@ -71067,9 +71703,12 @@
       <c r="EP208">
         <v>112.1</v>
       </c>
-    </row>
-    <row r="209" spans="1:146">
-      <c r="A209" s="26" t="s">
+      <c r="EQ208">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:147">
+      <c r="A209" s="32" t="s">
         <v>368</v>
       </c>
       <c r="DU209">
@@ -71138,9 +71777,12 @@
       <c r="EP209">
         <v>114.4</v>
       </c>
-    </row>
-    <row r="210" spans="1:146">
-      <c r="A210" s="26" t="s">
+      <c r="EQ209">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:147">
+      <c r="A210" s="32" t="s">
         <v>369</v>
       </c>
       <c r="DV210">
@@ -71206,9 +71848,12 @@
       <c r="EP210">
         <v>111</v>
       </c>
-    </row>
-    <row r="211" spans="1:146">
-      <c r="A211" s="26" t="s">
+      <c r="EQ210">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:147">
+      <c r="A211" s="32" t="s">
         <v>370</v>
       </c>
       <c r="DW211">
@@ -71271,9 +71916,12 @@
       <c r="EP211">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="212" spans="1:146">
-      <c r="A212" s="26" t="s">
+      <c r="EQ211">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:147">
+      <c r="A212" s="32" t="s">
         <v>371</v>
       </c>
       <c r="DX212">
@@ -71333,9 +71981,12 @@
       <c r="EP212">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:146">
-      <c r="A213" s="26" t="s">
+      <c r="EQ212">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:147">
+      <c r="A213" s="32" t="s">
         <v>372</v>
       </c>
       <c r="DY213">
@@ -71392,9 +72043,12 @@
       <c r="EP213">
         <v>116.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:146">
-      <c r="A214" s="26" t="s">
+      <c r="EQ213">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:147">
+      <c r="A214" s="32" t="s">
         <v>373</v>
       </c>
       <c r="DZ214">
@@ -71448,9 +72102,12 @@
       <c r="EP214">
         <v>119</v>
       </c>
-    </row>
-    <row r="215" spans="1:146">
-      <c r="A215" s="26" t="s">
+      <c r="EQ214">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215" spans="1:147">
+      <c r="A215" s="32" t="s">
         <v>374</v>
       </c>
       <c r="EA215">
@@ -71501,9 +72158,12 @@
       <c r="EP215">
         <v>119</v>
       </c>
-    </row>
-    <row r="216" spans="1:146">
-      <c r="A216" s="26" t="s">
+      <c r="EQ215">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:147">
+      <c r="A216" s="32" t="s">
         <v>375</v>
       </c>
       <c r="EB216">
@@ -71551,9 +72211,12 @@
       <c r="EP216">
         <v>122.4</v>
       </c>
-    </row>
-    <row r="217" spans="1:146">
-      <c r="A217" s="26" t="s">
+      <c r="EQ216">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:147">
+      <c r="A217" s="32" t="s">
         <v>376</v>
       </c>
       <c r="EC217">
@@ -71598,9 +72261,12 @@
       <c r="EP217">
         <v>123.7</v>
       </c>
-    </row>
-    <row r="218" spans="1:146">
-      <c r="A218" s="26" t="s">
+      <c r="EQ217">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:147">
+      <c r="A218" s="32" t="s">
         <v>377</v>
       </c>
       <c r="ED218">
@@ -71642,9 +72308,12 @@
       <c r="EP218">
         <v>124.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:146">
-      <c r="A219" s="26" t="s">
+      <c r="EQ218">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:147">
+      <c r="A219" s="32" t="s">
         <v>378</v>
       </c>
       <c r="EE219">
@@ -71683,9 +72352,12 @@
       <c r="EP219">
         <v>126.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:146">
-      <c r="A220" s="26" t="s">
+      <c r="EQ219">
+        <v>126.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:147">
+      <c r="A220" s="32" t="s">
         <v>379</v>
       </c>
       <c r="EF220">
@@ -71721,9 +72393,12 @@
       <c r="EP220">
         <v>128.4</v>
       </c>
-    </row>
-    <row r="221" spans="1:146">
-      <c r="A221" s="26" t="s">
+      <c r="EQ220">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:147">
+      <c r="A221" s="32" t="s">
         <v>380</v>
       </c>
       <c r="EG221">
@@ -71756,9 +72431,12 @@
       <c r="EP221">
         <v>127.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:146">
-      <c r="A222" s="26" t="s">
+      <c r="EQ221">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:147">
+      <c r="A222" s="32" t="s">
         <v>381</v>
       </c>
       <c r="EH222">
@@ -71788,9 +72466,12 @@
       <c r="EP222">
         <v>129.80000000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:146">
-      <c r="A223" s="26" t="s">
+      <c r="EQ222">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:147">
+      <c r="A223" s="32" t="s">
         <v>382</v>
       </c>
       <c r="EI223">
@@ -71817,9 +72498,12 @@
       <c r="EP223">
         <v>131</v>
       </c>
-    </row>
-    <row r="224" spans="1:146">
-      <c r="A224" s="26" t="s">
+      <c r="EQ223">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="1:147">
+      <c r="A224" s="32" t="s">
         <v>383</v>
       </c>
       <c r="EJ224">
@@ -71843,9 +72527,12 @@
       <c r="EP224">
         <v>132.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:146">
-      <c r="A225" s="26" t="s">
+      <c r="EQ224">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:147">
+      <c r="A225" s="32" t="s">
         <v>384</v>
       </c>
       <c r="EK225">
@@ -71866,9 +72553,12 @@
       <c r="EP225">
         <v>135.1</v>
       </c>
-    </row>
-    <row r="226" spans="1:146">
-      <c r="A226" s="26" t="s">
+      <c r="EQ225">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:147">
+      <c r="A226" s="32" t="s">
         <v>385</v>
       </c>
       <c r="EL226">
@@ -71886,9 +72576,12 @@
       <c r="EP226">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:146">
-      <c r="A227" s="26" t="s">
+      <c r="EQ226">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:147">
+      <c r="A227" s="32" t="s">
         <v>386</v>
       </c>
       <c r="EM227">
@@ -71903,9 +72596,12 @@
       <c r="EP227">
         <v>133.9</v>
       </c>
-    </row>
-    <row r="228" spans="1:146">
-      <c r="A228" s="26" t="s">
+      <c r="EQ227">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:147">
+      <c r="A228" s="32" t="s">
         <v>387</v>
       </c>
       <c r="EN228">
@@ -71917,9 +72613,12 @@
       <c r="EP228">
         <v>137.69999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:146">
-      <c r="A229" s="26" t="s">
+      <c r="EQ228">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:147">
+      <c r="A229" s="32" t="s">
         <v>388</v>
       </c>
       <c r="EO229">
@@ -71928,26 +72627,42 @@
       <c r="EP229">
         <v>137.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:146">
-      <c r="A230" s="26" t="s">
+      <c r="EQ229">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:147">
+      <c r="A230" s="32" t="s">
         <v>389</v>
       </c>
       <c r="EP230">
-        <v>135.80000000000001</v>
+        <v>135.69999999999999</v>
+      </c>
+      <c r="EQ230">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:147">
+      <c r="A231" s="32">
+        <v>43922</v>
+      </c>
+      <c r="EQ231">
+        <v>136.4</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B230"/>
+  <dimension ref="A1:B231"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -73789,7 +74504,15 @@
         <v>43831</v>
       </c>
       <c r="B230">
-        <v>135.80000000000001</v>
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B231">
+        <v>136.4</v>
       </c>
     </row>
   </sheetData>
@@ -73803,8 +74526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F91F600-5F4F-47D5-B0D4-36E02FB3AF34}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -75697,9 +76420,11 @@
       </c>
       <c r="B60" s="17"/>
       <c r="C60" s="15">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="D60" s="17"/>
+        <v>135.69999999999999</v>
+      </c>
+      <c r="D60" s="17">
+        <v>136.4</v>
+      </c>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
       <c r="G60" s="17"/>
@@ -75723,8 +76448,8 @@
   <dimension ref="A1:C444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D144" sqref="D144"/>
+      <pane ySplit="1" topLeftCell="A386" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/raw/others/CBHPI.xlsx
+++ b/data/raw/others/CBHPI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KaiLong\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\data\raw\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08573FEB-CC9B-4090-921F-BD1E91E520FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FEB7642-C83A-46B3-A724-C41D2F8AD1D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="1170" windowWidth="13560" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataframe" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <r>
       <rPr>
@@ -1341,6 +1341,9 @@
   <si>
     <t>CBHPI_20201026</t>
   </si>
+  <si>
+    <t>CBHPI_20210128</t>
+  </si>
 </sst>
 </file>
 
@@ -2084,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E4BFC32-6FBB-4D40-9CAB-1D6F329C34A2}">
-  <dimension ref="A1:ER232"/>
+  <dimension ref="A1:ES233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EH217" workbookViewId="0">
-      <selection activeCell="ER1" sqref="ER1"/>
+    <sheetView tabSelected="1" topLeftCell="DW1" workbookViewId="0">
+      <selection activeCell="EV7" sqref="EV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2095,7 +2098,7 @@
     <col min="1" max="1" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148">
+    <row r="1" spans="1:149">
       <c r="A1" s="26"/>
       <c r="B1" s="26" t="s">
         <v>16</v>
@@ -2538,8 +2541,11 @@
       <c r="ER1" s="26" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="2" spans="1:148">
+      <c r="ES1" s="26" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" spans="1:149">
       <c r="A2" s="27" t="s">
         <v>161</v>
       </c>
@@ -2984,8 +2990,11 @@
       <c r="ER2">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:148">
+      <c r="ES2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:149">
       <c r="A3" s="27" t="s">
         <v>162</v>
       </c>
@@ -3430,8 +3439,11 @@
       <c r="ER3">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:148">
+      <c r="ES3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149">
       <c r="A4" s="27" t="s">
         <v>163</v>
       </c>
@@ -3876,8 +3888,11 @@
       <c r="ER4">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:148">
+      <c r="ES4">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:149">
       <c r="A5" s="27" t="s">
         <v>164</v>
       </c>
@@ -4322,8 +4337,11 @@
       <c r="ER5">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:148">
+      <c r="ES5">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:149">
       <c r="A6" s="27" t="s">
         <v>165</v>
       </c>
@@ -4768,8 +4786,11 @@
       <c r="ER6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:148">
+      <c r="ES6">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:149">
       <c r="A7" s="27" t="s">
         <v>166</v>
       </c>
@@ -5214,8 +5235,11 @@
       <c r="ER7">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:148">
+      <c r="ES7">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:149">
       <c r="A8" s="27" t="s">
         <v>167</v>
       </c>
@@ -5660,8 +5684,11 @@
       <c r="ER8">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:148">
+      <c r="ES8">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:149">
       <c r="A9" s="27" t="s">
         <v>168</v>
       </c>
@@ -6106,8 +6133,11 @@
       <c r="ER9">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:148">
+      <c r="ES9">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:149">
       <c r="A10" s="27" t="s">
         <v>169</v>
       </c>
@@ -6552,8 +6582,11 @@
       <c r="ER10">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:148">
+      <c r="ES10">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:149">
       <c r="A11" s="27" t="s">
         <v>170</v>
       </c>
@@ -6998,8 +7031,11 @@
       <c r="ER11">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:148">
+      <c r="ES11">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:149">
       <c r="A12" s="27" t="s">
         <v>171</v>
       </c>
@@ -7444,8 +7480,11 @@
       <c r="ER12">
         <v>11.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:148">
+      <c r="ES12">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:149">
       <c r="A13" s="27" t="s">
         <v>172</v>
       </c>
@@ -7890,8 +7929,11 @@
       <c r="ER13">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:148">
+      <c r="ES13">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:149">
       <c r="A14" s="27" t="s">
         <v>173</v>
       </c>
@@ -8336,8 +8378,11 @@
       <c r="ER14">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:148">
+      <c r="ES14">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:149">
       <c r="A15" s="27" t="s">
         <v>174</v>
       </c>
@@ -8782,8 +8827,11 @@
       <c r="ER15">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:148">
+      <c r="ES15">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:149">
       <c r="A16" s="27" t="s">
         <v>175</v>
       </c>
@@ -9228,8 +9276,11 @@
       <c r="ER16">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="17" spans="1:148">
+      <c r="ES16">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:149">
       <c r="A17" s="27" t="s">
         <v>176</v>
       </c>
@@ -9674,8 +9725,11 @@
       <c r="ER17">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:148">
+      <c r="ES17">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:149">
       <c r="A18" s="27" t="s">
         <v>177</v>
       </c>
@@ -10120,8 +10174,11 @@
       <c r="ER18">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:148">
+      <c r="ES18">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:149">
       <c r="A19" s="27" t="s">
         <v>178</v>
       </c>
@@ -10566,8 +10623,11 @@
       <c r="ER19">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:148">
+      <c r="ES19">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:149">
       <c r="A20" s="27" t="s">
         <v>179</v>
       </c>
@@ -11012,8 +11072,11 @@
       <c r="ER20">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:148">
+      <c r="ES20">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:149">
       <c r="A21" s="27" t="s">
         <v>180</v>
       </c>
@@ -11458,8 +11521,11 @@
       <c r="ER21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:148">
+      <c r="ES21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:149">
       <c r="A22" s="27" t="s">
         <v>181</v>
       </c>
@@ -11904,8 +11970,11 @@
       <c r="ER22">
         <v>13.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:148">
+      <c r="ES22">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:149">
       <c r="A23" s="27" t="s">
         <v>182</v>
       </c>
@@ -12350,8 +12419,11 @@
       <c r="ER23">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:148">
+      <c r="ES23">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:149">
       <c r="A24" s="27" t="s">
         <v>183</v>
       </c>
@@ -12796,8 +12868,11 @@
       <c r="ER24">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:148">
+      <c r="ES24">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:149">
       <c r="A25" s="27" t="s">
         <v>184</v>
       </c>
@@ -13242,8 +13317,11 @@
       <c r="ER25">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:148">
+      <c r="ES25">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:149">
       <c r="A26" s="27" t="s">
         <v>185</v>
       </c>
@@ -13688,8 +13766,11 @@
       <c r="ER26">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:148">
+      <c r="ES26">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:149">
       <c r="A27" s="27" t="s">
         <v>186</v>
       </c>
@@ -14134,8 +14215,11 @@
       <c r="ER27">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:148">
+      <c r="ES27">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:149">
       <c r="A28" s="27" t="s">
         <v>187</v>
       </c>
@@ -14580,8 +14664,11 @@
       <c r="ER28">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:148">
+      <c r="ES28">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:149">
       <c r="A29" s="27" t="s">
         <v>188</v>
       </c>
@@ -15026,8 +15113,11 @@
       <c r="ER29">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:148">
+      <c r="ES29">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:149">
       <c r="A30" s="27" t="s">
         <v>189</v>
       </c>
@@ -15472,8 +15562,11 @@
       <c r="ER30">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="31" spans="1:148">
+      <c r="ES30">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:149">
       <c r="A31" s="27" t="s">
         <v>190</v>
       </c>
@@ -15918,8 +16011,11 @@
       <c r="ER31">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="32" spans="1:148">
+      <c r="ES31">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:149">
       <c r="A32" s="27" t="s">
         <v>191</v>
       </c>
@@ -16364,8 +16460,11 @@
       <c r="ER32">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:148">
+      <c r="ES32">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:149">
       <c r="A33" s="27" t="s">
         <v>192</v>
       </c>
@@ -16810,8 +16909,11 @@
       <c r="ER33">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:148">
+      <c r="ES33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:149">
       <c r="A34" s="27" t="s">
         <v>193</v>
       </c>
@@ -17256,8 +17358,11 @@
       <c r="ER34">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:148">
+      <c r="ES34">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:149">
       <c r="A35" s="27" t="s">
         <v>194</v>
       </c>
@@ -17702,8 +17807,11 @@
       <c r="ER35">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:148">
+      <c r="ES35">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:149">
       <c r="A36" s="27" t="s">
         <v>195</v>
       </c>
@@ -18148,8 +18256,11 @@
       <c r="ER36">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:148">
+      <c r="ES36">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:149">
       <c r="A37" s="27" t="s">
         <v>196</v>
       </c>
@@ -18594,8 +18705,11 @@
       <c r="ER37">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:148">
+      <c r="ES37">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:149">
       <c r="A38" s="27" t="s">
         <v>197</v>
       </c>
@@ -19040,8 +19154,11 @@
       <c r="ER38">
         <v>16.399999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:148">
+      <c r="ES38">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:149">
       <c r="A39" s="27" t="s">
         <v>198</v>
       </c>
@@ -19486,8 +19603,11 @@
       <c r="ER39">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:148">
+      <c r="ES39">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:149">
       <c r="A40" s="27" t="s">
         <v>199</v>
       </c>
@@ -19932,8 +20052,11 @@
       <c r="ER40">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:148">
+      <c r="ES40">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:149">
       <c r="A41" s="27" t="s">
         <v>200</v>
       </c>
@@ -20378,8 +20501,11 @@
       <c r="ER41">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:148">
+      <c r="ES41">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:149">
       <c r="A42" s="27" t="s">
         <v>201</v>
       </c>
@@ -20824,8 +20950,11 @@
       <c r="ER42">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:148">
+      <c r="ES42">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:149">
       <c r="A43" s="27" t="s">
         <v>202</v>
       </c>
@@ -21270,8 +21399,11 @@
       <c r="ER43">
         <v>18.100000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:148">
+      <c r="ES43">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:149">
       <c r="A44" s="27" t="s">
         <v>203</v>
       </c>
@@ -21716,8 +21848,11 @@
       <c r="ER44">
         <v>18.7</v>
       </c>
-    </row>
-    <row r="45" spans="1:148">
+      <c r="ES44">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:149">
       <c r="A45" s="27" t="s">
         <v>204</v>
       </c>
@@ -22162,8 +22297,11 @@
       <c r="ER45">
         <v>19</v>
       </c>
-    </row>
-    <row r="46" spans="1:148">
+      <c r="ES45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:149">
       <c r="A46" s="27" t="s">
         <v>205</v>
       </c>
@@ -22608,8 +22746,11 @@
       <c r="ER46">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:148">
+      <c r="ES46">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:149">
       <c r="A47" s="27" t="s">
         <v>206</v>
       </c>
@@ -23054,8 +23195,11 @@
       <c r="ER47">
         <v>19.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:148">
+      <c r="ES47">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:149">
       <c r="A48" s="27" t="s">
         <v>207</v>
       </c>
@@ -23500,8 +23644,11 @@
       <c r="ER48">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:148">
+      <c r="ES48">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:149">
       <c r="A49" s="27" t="s">
         <v>208</v>
       </c>
@@ -23946,8 +24093,11 @@
       <c r="ER49">
         <v>20.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:148">
+      <c r="ES49">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:149">
       <c r="A50" s="27" t="s">
         <v>209</v>
       </c>
@@ -24392,8 +24542,11 @@
       <c r="ER50">
         <v>21.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:148">
+      <c r="ES50">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:149">
       <c r="A51" s="27" t="s">
         <v>210</v>
       </c>
@@ -24838,8 +24991,11 @@
       <c r="ER51">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:148">
+      <c r="ES51">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:149">
       <c r="A52" s="27" t="s">
         <v>211</v>
       </c>
@@ -25284,8 +25440,11 @@
       <c r="ER52">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="53" spans="1:148">
+      <c r="ES52">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:149">
       <c r="A53" s="27" t="s">
         <v>212</v>
       </c>
@@ -25730,8 +25889,11 @@
       <c r="ER53">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="54" spans="1:148">
+      <c r="ES53">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:149">
       <c r="A54" s="27" t="s">
         <v>213</v>
       </c>
@@ -26176,8 +26338,11 @@
       <c r="ER54">
         <v>23.1</v>
       </c>
-    </row>
-    <row r="55" spans="1:148">
+      <c r="ES54">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:149">
       <c r="A55" s="27" t="s">
         <v>214</v>
       </c>
@@ -26622,8 +26787,11 @@
       <c r="ER55">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:148">
+      <c r="ES55">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:149">
       <c r="A56" s="27" t="s">
         <v>215</v>
       </c>
@@ -27068,8 +27236,11 @@
       <c r="ER56">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:148">
+      <c r="ES56">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:149">
       <c r="A57" s="27" t="s">
         <v>216</v>
       </c>
@@ -27514,8 +27685,11 @@
       <c r="ER57">
         <v>24.9</v>
       </c>
-    </row>
-    <row r="58" spans="1:148">
+      <c r="ES57">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:149">
       <c r="A58" s="27" t="s">
         <v>217</v>
       </c>
@@ -27960,8 +28134,11 @@
       <c r="ER58">
         <v>25.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:148">
+      <c r="ES58">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:149">
       <c r="A59" s="27" t="s">
         <v>218</v>
       </c>
@@ -28406,8 +28583,11 @@
       <c r="ER59">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="60" spans="1:148">
+      <c r="ES59">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:149">
       <c r="A60" s="27" t="s">
         <v>219</v>
       </c>
@@ -28852,8 +29032,11 @@
       <c r="ER60">
         <v>27.2</v>
       </c>
-    </row>
-    <row r="61" spans="1:148">
+      <c r="ES60">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:149">
       <c r="A61" s="27" t="s">
         <v>220</v>
       </c>
@@ -29298,8 +29481,11 @@
       <c r="ER61">
         <v>28.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:148">
+      <c r="ES61">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:149">
       <c r="A62" s="27" t="s">
         <v>221</v>
       </c>
@@ -29744,8 +29930,11 @@
       <c r="ER62">
         <v>29.2</v>
       </c>
-    </row>
-    <row r="63" spans="1:148">
+      <c r="ES62">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:149">
       <c r="A63" s="27" t="s">
         <v>222</v>
       </c>
@@ -30190,8 +30379,11 @@
       <c r="ER63">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:148">
+      <c r="ES63">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:149">
       <c r="A64" s="27" t="s">
         <v>223</v>
       </c>
@@ -30636,8 +30828,11 @@
       <c r="ER64">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="65" spans="1:148">
+      <c r="ES64">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:149">
       <c r="A65" s="27" t="s">
         <v>224</v>
       </c>
@@ -31082,8 +31277,11 @@
       <c r="ER65">
         <v>32.700000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:148">
+      <c r="ES65">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:149">
       <c r="A66" s="27" t="s">
         <v>225</v>
       </c>
@@ -31528,8 +31726,11 @@
       <c r="ER66">
         <v>33.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:148">
+      <c r="ES66">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:149">
       <c r="A67" s="27" t="s">
         <v>226</v>
       </c>
@@ -31974,8 +32175,11 @@
       <c r="ER67">
         <v>35.5</v>
       </c>
-    </row>
-    <row r="68" spans="1:148">
+      <c r="ES67">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:149">
       <c r="A68" s="27" t="s">
         <v>227</v>
       </c>
@@ -32420,8 +32624,11 @@
       <c r="ER68">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:148">
+      <c r="ES68">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:149">
       <c r="A69" s="27" t="s">
         <v>228</v>
       </c>
@@ -32866,8 +33073,11 @@
       <c r="ER69">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:148">
+      <c r="ES69">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:149">
       <c r="A70" s="27" t="s">
         <v>229</v>
       </c>
@@ -33312,8 +33522,11 @@
       <c r="ER70">
         <v>38.1</v>
       </c>
-    </row>
-    <row r="71" spans="1:148">
+      <c r="ES70">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:149">
       <c r="A71" s="27" t="s">
         <v>230</v>
       </c>
@@ -33758,8 +33971,11 @@
       <c r="ER71">
         <v>38.700000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:148">
+      <c r="ES71">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:149">
       <c r="A72" s="27" t="s">
         <v>231</v>
       </c>
@@ -34204,8 +34420,11 @@
       <c r="ER72">
         <v>39.6</v>
       </c>
-    </row>
-    <row r="73" spans="1:148">
+      <c r="ES72">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:149">
       <c r="A73" s="27" t="s">
         <v>232</v>
       </c>
@@ -34650,8 +34869,11 @@
       <c r="ER73">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="74" spans="1:148">
+      <c r="ES73">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:149">
       <c r="A74" s="27" t="s">
         <v>233</v>
       </c>
@@ -35096,8 +35318,11 @@
       <c r="ER74">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="75" spans="1:148">
+      <c r="ES74">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:149">
       <c r="A75" s="27" t="s">
         <v>234</v>
       </c>
@@ -35542,8 +35767,11 @@
       <c r="ER75">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:148">
+      <c r="ES75">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:149">
       <c r="A76" s="27" t="s">
         <v>235</v>
       </c>
@@ -35988,8 +36216,11 @@
       <c r="ER76">
         <v>42.3</v>
       </c>
-    </row>
-    <row r="77" spans="1:148">
+      <c r="ES76">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:149">
       <c r="A77" s="27" t="s">
         <v>236</v>
       </c>
@@ -36434,8 +36665,11 @@
       <c r="ER77">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:148">
+      <c r="ES77">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:149">
       <c r="A78" s="27" t="s">
         <v>237</v>
       </c>
@@ -36880,8 +37114,11 @@
       <c r="ER78">
         <v>43.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:148">
+      <c r="ES78">
+        <v>43.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:149">
       <c r="A79" s="27" t="s">
         <v>238</v>
       </c>
@@ -37326,8 +37563,11 @@
       <c r="ER79">
         <v>43.4</v>
       </c>
-    </row>
-    <row r="80" spans="1:148">
+      <c r="ES79">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:149">
       <c r="A80" s="27" t="s">
         <v>239</v>
       </c>
@@ -37772,8 +38012,11 @@
       <c r="ER80">
         <v>43</v>
       </c>
-    </row>
-    <row r="81" spans="1:148">
+      <c r="ES80">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:149">
       <c r="A81" s="27" t="s">
         <v>240</v>
       </c>
@@ -38218,8 +38461,11 @@
       <c r="ER81">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:148">
+      <c r="ES81">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:149">
       <c r="A82" s="27" t="s">
         <v>241</v>
       </c>
@@ -38664,8 +38910,11 @@
       <c r="ER82">
         <v>43.7</v>
       </c>
-    </row>
-    <row r="83" spans="1:148">
+      <c r="ES82">
+        <v>43.7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:149">
       <c r="A83" s="27" t="s">
         <v>242</v>
       </c>
@@ -39110,8 +39359,11 @@
       <c r="ER83">
         <v>43.8</v>
       </c>
-    </row>
-    <row r="84" spans="1:148">
+      <c r="ES83">
+        <v>43.8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:149">
       <c r="A84" s="27" t="s">
         <v>243</v>
       </c>
@@ -39556,8 +39808,11 @@
       <c r="ER84">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="85" spans="1:148">
+      <c r="ES84">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:149">
       <c r="A85" s="27" t="s">
         <v>244</v>
       </c>
@@ -40002,8 +40257,11 @@
       <c r="ER85">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:148">
+      <c r="ES85">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:149">
       <c r="A86" s="27" t="s">
         <v>245</v>
       </c>
@@ -40448,8 +40706,11 @@
       <c r="ER86">
         <v>44.9</v>
       </c>
-    </row>
-    <row r="87" spans="1:148">
+      <c r="ES86">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:149">
       <c r="A87" s="27" t="s">
         <v>246</v>
       </c>
@@ -40891,8 +41152,11 @@
       <c r="ER87">
         <v>45.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:148">
+      <c r="ES87">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:149">
       <c r="A88" s="27" t="s">
         <v>247</v>
       </c>
@@ -41331,8 +41595,11 @@
       <c r="ER88">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="89" spans="1:148">
+      <c r="ES88">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:149">
       <c r="A89" s="27" t="s">
         <v>248</v>
       </c>
@@ -41768,8 +42035,11 @@
       <c r="ER89">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:148">
+      <c r="ES89">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:149">
       <c r="A90" s="27" t="s">
         <v>249</v>
       </c>
@@ -42202,8 +42472,11 @@
       <c r="ER90">
         <v>46.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:148">
+      <c r="ES90">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:149">
       <c r="A91" s="27" t="s">
         <v>250</v>
       </c>
@@ -42633,8 +42906,11 @@
       <c r="ER91">
         <v>46.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:148">
+      <c r="ES91">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:149">
       <c r="A92" s="27" t="s">
         <v>251</v>
       </c>
@@ -43061,8 +43337,11 @@
       <c r="ER92">
         <v>46.1</v>
       </c>
-    </row>
-    <row r="93" spans="1:148">
+      <c r="ES92">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:149">
       <c r="A93" s="27" t="s">
         <v>252</v>
       </c>
@@ -43486,8 +43765,11 @@
       <c r="ER93">
         <v>46.9</v>
       </c>
-    </row>
-    <row r="94" spans="1:148">
+      <c r="ES93">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:149">
       <c r="A94" s="27" t="s">
         <v>253</v>
       </c>
@@ -43908,8 +44190,11 @@
       <c r="ER94">
         <v>47.2</v>
       </c>
-    </row>
-    <row r="95" spans="1:148">
+      <c r="ES94">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:149">
       <c r="A95" s="27" t="s">
         <v>254</v>
       </c>
@@ -44327,8 +44612,11 @@
       <c r="ER95">
         <v>48.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:148">
+      <c r="ES95">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:149">
       <c r="A96" s="27" t="s">
         <v>255</v>
       </c>
@@ -44743,8 +45031,11 @@
       <c r="ER96">
         <v>49.1</v>
       </c>
-    </row>
-    <row r="97" spans="1:148">
+      <c r="ES96">
+        <v>49.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:149">
       <c r="A97" s="27" t="s">
         <v>256</v>
       </c>
@@ -45156,8 +45447,11 @@
       <c r="ER97">
         <v>48.7</v>
       </c>
-    </row>
-    <row r="98" spans="1:148">
+      <c r="ES97">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:149">
       <c r="A98" s="27" t="s">
         <v>257</v>
       </c>
@@ -45566,8 +45860,11 @@
       <c r="ER98">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:148">
+      <c r="ES98">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:149">
       <c r="A99" s="27" t="s">
         <v>258</v>
       </c>
@@ -45973,8 +46270,11 @@
       <c r="ER99">
         <v>50.8</v>
       </c>
-    </row>
-    <row r="100" spans="1:148">
+      <c r="ES99">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:149">
       <c r="A100" s="27" t="s">
         <v>259</v>
       </c>
@@ -46377,8 +46677,11 @@
       <c r="ER100">
         <v>51.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:148">
+      <c r="ES100">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:149">
       <c r="A101" s="27" t="s">
         <v>260</v>
       </c>
@@ -46778,8 +47081,11 @@
       <c r="ER101">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="102" spans="1:148">
+      <c r="ES101">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:149">
       <c r="A102" s="27" t="s">
         <v>261</v>
       </c>
@@ -47176,8 +47482,11 @@
       <c r="ER102">
         <v>52.4</v>
       </c>
-    </row>
-    <row r="103" spans="1:148">
+      <c r="ES102">
+        <v>52.4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:149">
       <c r="A103" s="27" t="s">
         <v>262</v>
       </c>
@@ -47571,8 +47880,11 @@
       <c r="ER103">
         <v>52.6</v>
       </c>
-    </row>
-    <row r="104" spans="1:148">
+      <c r="ES103">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:149">
       <c r="A104" s="27" t="s">
         <v>263</v>
       </c>
@@ -47963,8 +48275,11 @@
       <c r="ER104">
         <v>53.2</v>
       </c>
-    </row>
-    <row r="105" spans="1:148">
+      <c r="ES104">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:149">
       <c r="A105" s="27" t="s">
         <v>264</v>
       </c>
@@ -48352,8 +48667,11 @@
       <c r="ER105">
         <v>53.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:148">
+      <c r="ES105">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:149">
       <c r="A106" s="27" t="s">
         <v>265</v>
       </c>
@@ -48738,8 +49056,11 @@
       <c r="ER106">
         <v>54.2</v>
       </c>
-    </row>
-    <row r="107" spans="1:148">
+      <c r="ES106">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:149">
       <c r="A107" s="27" t="s">
         <v>266</v>
       </c>
@@ -49121,8 +49442,11 @@
       <c r="ER107">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:148">
+      <c r="ES107">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:149">
       <c r="A108" s="27" t="s">
         <v>267</v>
       </c>
@@ -49501,8 +49825,11 @@
       <c r="ER108">
         <v>55.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:148">
+      <c r="ES108">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:149">
       <c r="A109" s="27" t="s">
         <v>268</v>
       </c>
@@ -49878,8 +50205,11 @@
       <c r="ER109">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="110" spans="1:148">
+      <c r="ES109">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:149">
       <c r="A110" s="27" t="s">
         <v>269</v>
       </c>
@@ -50252,8 +50582,11 @@
       <c r="ER110">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:148">
+      <c r="ES110">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:149">
       <c r="A111" s="27" t="s">
         <v>270</v>
       </c>
@@ -50623,8 +50956,11 @@
       <c r="ER111">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:148">
+      <c r="ES111">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:149">
       <c r="A112" s="27" t="s">
         <v>271</v>
       </c>
@@ -50991,8 +51327,11 @@
       <c r="ER112">
         <v>56.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:148">
+      <c r="ES112">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:149">
       <c r="A113" s="27" t="s">
         <v>272</v>
       </c>
@@ -51356,8 +51695,11 @@
       <c r="ER113">
         <v>55.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:148">
+      <c r="ES113">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:149">
       <c r="A114" s="27" t="s">
         <v>273</v>
       </c>
@@ -51718,8 +52060,11 @@
       <c r="ER114">
         <v>55.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:148">
+      <c r="ES114">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:149">
       <c r="A115" s="27" t="s">
         <v>274</v>
       </c>
@@ -52077,8 +52422,11 @@
       <c r="ER115">
         <v>57</v>
       </c>
-    </row>
-    <row r="116" spans="1:148">
+      <c r="ES115">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="116" spans="1:149">
       <c r="A116" s="27" t="s">
         <v>275</v>
       </c>
@@ -52433,8 +52781,11 @@
       <c r="ER116">
         <v>57.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:148">
+      <c r="ES116">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:149">
       <c r="A117" s="27" t="s">
         <v>276</v>
       </c>
@@ -52786,8 +53137,11 @@
       <c r="ER117">
         <v>56.2</v>
       </c>
-    </row>
-    <row r="118" spans="1:148">
+      <c r="ES117">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:149">
       <c r="A118" s="27" t="s">
         <v>277</v>
       </c>
@@ -53136,8 +53490,11 @@
       <c r="ER118">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="119" spans="1:148">
+      <c r="ES118">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:149">
       <c r="A119" s="27" t="s">
         <v>278</v>
       </c>
@@ -53483,8 +53840,11 @@
       <c r="ER119">
         <v>56.6</v>
       </c>
-    </row>
-    <row r="120" spans="1:148">
+      <c r="ES119">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:149">
       <c r="A120" s="27" t="s">
         <v>279</v>
       </c>
@@ -53827,8 +54187,11 @@
       <c r="ER120">
         <v>56.7</v>
       </c>
-    </row>
-    <row r="121" spans="1:148">
+      <c r="ES120">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:149">
       <c r="A121" s="27" t="s">
         <v>280</v>
       </c>
@@ -54168,8 +54531,11 @@
       <c r="ER121">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="122" spans="1:148">
+      <c r="ES121">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:149">
       <c r="A122" s="27" t="s">
         <v>281</v>
       </c>
@@ -54506,8 +54872,11 @@
       <c r="ER122">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:148">
+      <c r="ES122">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:149">
       <c r="A123" s="27" t="s">
         <v>282</v>
       </c>
@@ -54841,8 +55210,11 @@
       <c r="ER123">
         <v>59.9</v>
       </c>
-    </row>
-    <row r="124" spans="1:148">
+      <c r="ES123">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:149">
       <c r="A124" s="27" t="s">
         <v>283</v>
       </c>
@@ -55173,8 +55545,11 @@
       <c r="ER124">
         <v>59.7</v>
       </c>
-    </row>
-    <row r="125" spans="1:148">
+      <c r="ES124">
+        <v>59.7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:149">
       <c r="A125" s="27" t="s">
         <v>284</v>
       </c>
@@ -55502,8 +55877,11 @@
       <c r="ER125">
         <v>59.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:148">
+      <c r="ES125">
+        <v>59.6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:149">
       <c r="A126" s="27" t="s">
         <v>285</v>
       </c>
@@ -55828,8 +56206,11 @@
       <c r="ER126">
         <v>62.4</v>
       </c>
-    </row>
-    <row r="127" spans="1:148">
+      <c r="ES126">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:149">
       <c r="A127" s="27" t="s">
         <v>286</v>
       </c>
@@ -56151,8 +56532,11 @@
       <c r="ER127">
         <v>62.9</v>
       </c>
-    </row>
-    <row r="128" spans="1:148">
+      <c r="ES127">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:149">
       <c r="A128" s="27" t="s">
         <v>287</v>
       </c>
@@ -56471,8 +56855,11 @@
       <c r="ER128">
         <v>63.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:148">
+      <c r="ES128">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:149">
       <c r="A129" s="27" t="s">
         <v>288</v>
       </c>
@@ -56788,8 +57175,11 @@
       <c r="ER129">
         <v>63.4</v>
       </c>
-    </row>
-    <row r="130" spans="1:148">
+      <c r="ES129">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:149">
       <c r="A130" s="27" t="s">
         <v>289</v>
       </c>
@@ -57102,8 +57492,11 @@
       <c r="ER130">
         <v>63.7</v>
       </c>
-    </row>
-    <row r="131" spans="1:148">
+      <c r="ES130">
+        <v>63.7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:149">
       <c r="A131" s="27" t="s">
         <v>290</v>
       </c>
@@ -57413,8 +57806,11 @@
       <c r="ER131">
         <v>64.2</v>
       </c>
-    </row>
-    <row r="132" spans="1:148">
+      <c r="ES131">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:149">
       <c r="A132" s="27" t="s">
         <v>291</v>
       </c>
@@ -57721,8 +58117,11 @@
       <c r="ER132">
         <v>64.7</v>
       </c>
-    </row>
-    <row r="133" spans="1:148">
+      <c r="ES132">
+        <v>64.7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:149">
       <c r="A133" s="27" t="s">
         <v>292</v>
       </c>
@@ -58026,8 +58425,11 @@
       <c r="ER133">
         <v>63.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:148">
+      <c r="ES133">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:149">
       <c r="A134" s="27" t="s">
         <v>293</v>
       </c>
@@ -58328,8 +58730,11 @@
       <c r="ER134">
         <v>65.900000000000006</v>
       </c>
-    </row>
-    <row r="135" spans="1:148">
+      <c r="ES134">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="135" spans="1:149">
       <c r="A135" s="27" t="s">
         <v>294</v>
       </c>
@@ -58627,8 +59032,11 @@
       <c r="ER135">
         <v>65.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:148">
+      <c r="ES135">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:149">
       <c r="A136" s="27" t="s">
         <v>295</v>
       </c>
@@ -58923,8 +59331,11 @@
       <c r="ER136">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="137" spans="1:148">
+      <c r="ES136">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="1:149">
       <c r="A137" s="27" t="s">
         <v>296</v>
       </c>
@@ -59216,8 +59627,11 @@
       <c r="ER137">
         <v>65.599999999999994</v>
       </c>
-    </row>
-    <row r="138" spans="1:148">
+      <c r="ES137">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="138" spans="1:149">
       <c r="A138" s="27" t="s">
         <v>297</v>
       </c>
@@ -59506,8 +59920,11 @@
       <c r="ER138">
         <v>66.599999999999994</v>
       </c>
-    </row>
-    <row r="139" spans="1:148">
+      <c r="ES138">
+        <v>66.599999999999994</v>
+      </c>
+    </row>
+    <row r="139" spans="1:149">
       <c r="A139" s="27" t="s">
         <v>298</v>
       </c>
@@ -59793,8 +60210,11 @@
       <c r="ER139">
         <v>67.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:148">
+      <c r="ES139">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:149">
       <c r="A140" s="27" t="s">
         <v>299</v>
       </c>
@@ -60077,8 +60497,11 @@
       <c r="ER140">
         <v>67.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:148">
+      <c r="ES140">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:149">
       <c r="A141" s="27" t="s">
         <v>300</v>
       </c>
@@ -60358,8 +60781,11 @@
       <c r="ER141">
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="142" spans="1:148">
+      <c r="ES141">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="142" spans="1:149">
       <c r="A142" s="27" t="s">
         <v>301</v>
       </c>
@@ -60636,8 +61062,11 @@
       <c r="ER142">
         <v>68.8</v>
       </c>
-    </row>
-    <row r="143" spans="1:148">
+      <c r="ES142">
+        <v>68.8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:149">
       <c r="A143" s="27" t="s">
         <v>302</v>
       </c>
@@ -60911,8 +61340,11 @@
       <c r="ER143">
         <v>68.2</v>
       </c>
-    </row>
-    <row r="144" spans="1:148">
+      <c r="ES143">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:149">
       <c r="A144" s="27" t="s">
         <v>303</v>
       </c>
@@ -61183,8 +61615,11 @@
       <c r="ER144">
         <v>69.400000000000006</v>
       </c>
-    </row>
-    <row r="145" spans="1:148">
+      <c r="ES144">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:149">
       <c r="A145" s="27" t="s">
         <v>304</v>
       </c>
@@ -61452,8 +61887,11 @@
       <c r="ER145">
         <v>70.099999999999994</v>
       </c>
-    </row>
-    <row r="146" spans="1:148">
+      <c r="ES145">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="146" spans="1:149">
       <c r="A146" s="27" t="s">
         <v>305</v>
       </c>
@@ -61718,8 +62156,11 @@
       <c r="ER146">
         <v>71.099999999999994</v>
       </c>
-    </row>
-    <row r="147" spans="1:148">
+      <c r="ES146">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:149">
       <c r="A147" s="27" t="s">
         <v>306</v>
       </c>
@@ -61981,8 +62422,11 @@
       <c r="ER147">
         <v>72.7</v>
       </c>
-    </row>
-    <row r="148" spans="1:148">
+      <c r="ES147">
+        <v>72.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:149">
       <c r="A148" s="27" t="s">
         <v>307</v>
       </c>
@@ -62241,8 +62685,11 @@
       <c r="ER148">
         <v>73</v>
       </c>
-    </row>
-    <row r="149" spans="1:148">
+      <c r="ES148">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:149">
       <c r="A149" s="27" t="s">
         <v>308</v>
       </c>
@@ -62498,8 +62945,11 @@
       <c r="ER149">
         <v>73</v>
       </c>
-    </row>
-    <row r="150" spans="1:148">
+      <c r="ES149">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="150" spans="1:149">
       <c r="A150" s="27" t="s">
         <v>309</v>
       </c>
@@ -62752,8 +63202,11 @@
       <c r="ER150">
         <v>74.3</v>
       </c>
-    </row>
-    <row r="151" spans="1:148">
+      <c r="ES150">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:149">
       <c r="A151" s="27" t="s">
         <v>310</v>
       </c>
@@ -63003,8 +63456,11 @@
       <c r="ER151">
         <v>74.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:148">
+      <c r="ES151">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:149">
       <c r="A152" s="27" t="s">
         <v>311</v>
       </c>
@@ -63251,8 +63707,11 @@
       <c r="ER152">
         <v>75.8</v>
       </c>
-    </row>
-    <row r="153" spans="1:148">
+      <c r="ES152">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="153" spans="1:149">
       <c r="A153" s="27" t="s">
         <v>312</v>
       </c>
@@ -63496,8 +63955,11 @@
       <c r="ER153">
         <v>76.2</v>
       </c>
-    </row>
-    <row r="154" spans="1:148">
+      <c r="ES153">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:149">
       <c r="A154" s="27" t="s">
         <v>313</v>
       </c>
@@ -63738,8 +64200,11 @@
       <c r="ER154">
         <v>76.900000000000006</v>
       </c>
-    </row>
-    <row r="155" spans="1:148">
+      <c r="ES154">
+        <v>76.900000000000006</v>
+      </c>
+    </row>
+    <row r="155" spans="1:149">
       <c r="A155" s="27" t="s">
         <v>314</v>
       </c>
@@ -63977,8 +64442,11 @@
       <c r="ER155">
         <v>77.3</v>
       </c>
-    </row>
-    <row r="156" spans="1:148">
+      <c r="ES155">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:149">
       <c r="A156" s="27" t="s">
         <v>315</v>
       </c>
@@ -64213,8 +64681,11 @@
       <c r="ER156">
         <v>78.099999999999994</v>
       </c>
-    </row>
-    <row r="157" spans="1:148">
+      <c r="ES156">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:149">
       <c r="A157" s="27" t="s">
         <v>316</v>
       </c>
@@ -64446,8 +64917,11 @@
       <c r="ER157">
         <v>79.099999999999994</v>
       </c>
-    </row>
-    <row r="158" spans="1:148">
+      <c r="ES157">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="158" spans="1:149">
       <c r="A158" s="27" t="s">
         <v>317</v>
       </c>
@@ -64676,8 +65150,11 @@
       <c r="ER158">
         <v>80.900000000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:148">
+      <c r="ES158">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:149">
       <c r="A159" s="27" t="s">
         <v>318</v>
       </c>
@@ -64903,8 +65380,11 @@
       <c r="ER159">
         <v>81.3</v>
       </c>
-    </row>
-    <row r="160" spans="1:148">
+      <c r="ES159">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:149">
       <c r="A160" s="27" t="s">
         <v>319</v>
       </c>
@@ -65127,8 +65607,11 @@
       <c r="ER160">
         <v>80.599999999999994</v>
       </c>
-    </row>
-    <row r="161" spans="1:148">
+      <c r="ES160">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="161" spans="1:149">
       <c r="A161" s="27" t="s">
         <v>320</v>
       </c>
@@ -65348,8 +65831,11 @@
       <c r="ER161">
         <v>83.8</v>
       </c>
-    </row>
-    <row r="162" spans="1:148">
+      <c r="ES161">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:149">
       <c r="A162" s="27" t="s">
         <v>321</v>
       </c>
@@ -65566,8 +66052,11 @@
       <c r="ER162">
         <v>84.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:148">
+      <c r="ES162">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:149">
       <c r="A163" s="27" t="s">
         <v>322</v>
       </c>
@@ -65781,8 +66270,11 @@
       <c r="ER163">
         <v>84.6</v>
       </c>
-    </row>
-    <row r="164" spans="1:148">
+      <c r="ES163">
+        <v>84.6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:149">
       <c r="A164" s="27" t="s">
         <v>323</v>
       </c>
@@ -65993,8 +66485,11 @@
       <c r="ER164">
         <v>87.1</v>
       </c>
-    </row>
-    <row r="165" spans="1:148">
+      <c r="ES164">
+        <v>87.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:149">
       <c r="A165" s="27" t="s">
         <v>324</v>
       </c>
@@ -66202,8 +66697,11 @@
       <c r="ER165">
         <v>88.5</v>
       </c>
-    </row>
-    <row r="166" spans="1:148">
+      <c r="ES165">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:149">
       <c r="A166" s="27" t="s">
         <v>325</v>
       </c>
@@ -66408,8 +66906,11 @@
       <c r="ER166">
         <v>91.3</v>
       </c>
-    </row>
-    <row r="167" spans="1:148">
+      <c r="ES166">
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:149">
       <c r="A167" s="27" t="s">
         <v>326</v>
       </c>
@@ -66611,8 +67112,11 @@
       <c r="ER167">
         <v>91.8</v>
       </c>
-    </row>
-    <row r="168" spans="1:148">
+      <c r="ES167">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:149">
       <c r="A168" s="27" t="s">
         <v>327</v>
       </c>
@@ -66811,8 +67315,11 @@
       <c r="ER168">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="169" spans="1:148">
+      <c r="ES168">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:149">
       <c r="A169" s="27" t="s">
         <v>328</v>
       </c>
@@ -67008,8 +67515,11 @@
       <c r="ER169">
         <v>95</v>
       </c>
-    </row>
-    <row r="170" spans="1:148">
+      <c r="ES169">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="170" spans="1:149">
       <c r="A170" s="27" t="s">
         <v>329</v>
       </c>
@@ -67202,8 +67712,11 @@
       <c r="ER170">
         <v>96.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:148">
+      <c r="ES170">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:149">
       <c r="A171" s="27" t="s">
         <v>330</v>
       </c>
@@ -67393,8 +67906,11 @@
       <c r="ER171">
         <v>99.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:148">
+      <c r="ES171">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:149">
       <c r="A172" s="27" t="s">
         <v>331</v>
       </c>
@@ -67581,8 +68097,11 @@
       <c r="ER172">
         <v>101.4</v>
       </c>
-    </row>
-    <row r="173" spans="1:148">
+      <c r="ES172">
+        <v>101.4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:149">
       <c r="A173" s="27" t="s">
         <v>332</v>
       </c>
@@ -67766,8 +68285,11 @@
       <c r="ER173">
         <v>103.9</v>
       </c>
-    </row>
-    <row r="174" spans="1:148">
+      <c r="ES173">
+        <v>103.9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:149">
       <c r="A174" s="27" t="s">
         <v>333</v>
       </c>
@@ -67948,8 +68470,11 @@
       <c r="ER174">
         <v>104.1</v>
       </c>
-    </row>
-    <row r="175" spans="1:148">
+      <c r="ES174">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:149">
       <c r="A175" s="27" t="s">
         <v>334</v>
       </c>
@@ -68127,8 +68652,11 @@
       <c r="ER175">
         <v>105.7</v>
       </c>
-    </row>
-    <row r="176" spans="1:148">
+      <c r="ES175">
+        <v>105.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:149">
       <c r="A176" s="27" t="s">
         <v>335</v>
       </c>
@@ -68303,8 +68831,11 @@
       <c r="ER176">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:148">
+      <c r="ES176">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:149">
       <c r="A177" s="27" t="s">
         <v>336</v>
       </c>
@@ -68476,8 +69007,11 @@
       <c r="ER177">
         <v>103.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:148">
+      <c r="ES177">
+        <v>103.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:149">
       <c r="A178" s="27" t="s">
         <v>337</v>
       </c>
@@ -68646,8 +69180,11 @@
       <c r="ER178">
         <v>107.2</v>
       </c>
-    </row>
-    <row r="179" spans="1:148">
+      <c r="ES178">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:149">
       <c r="A179" s="27" t="s">
         <v>338</v>
       </c>
@@ -68813,8 +69350,11 @@
       <c r="ER179">
         <v>105.9</v>
       </c>
-    </row>
-    <row r="180" spans="1:148">
+      <c r="ES179">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:149">
       <c r="A180" s="27" t="s">
         <v>339</v>
       </c>
@@ -68977,8 +69517,11 @@
       <c r="ER180">
         <v>103</v>
       </c>
-    </row>
-    <row r="181" spans="1:148">
+      <c r="ES180">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:149">
       <c r="A181" s="27" t="s">
         <v>340</v>
       </c>
@@ -69138,8 +69681,11 @@
       <c r="ER181">
         <v>102.1</v>
       </c>
-    </row>
-    <row r="182" spans="1:148">
+      <c r="ES181">
+        <v>102.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:149">
       <c r="A182" s="27" t="s">
         <v>341</v>
       </c>
@@ -69296,8 +69842,11 @@
       <c r="ER182">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:148">
+      <c r="ES182">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:149">
       <c r="A183" s="27" t="s">
         <v>342</v>
       </c>
@@ -69451,8 +70000,11 @@
       <c r="ER183">
         <v>102.2</v>
       </c>
-    </row>
-    <row r="184" spans="1:148">
+      <c r="ES183">
+        <v>102.2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:149">
       <c r="A184" s="27" t="s">
         <v>343</v>
       </c>
@@ -69603,8 +70155,11 @@
       <c r="ER184">
         <v>100.2</v>
       </c>
-    </row>
-    <row r="185" spans="1:148">
+      <c r="ES184">
+        <v>100.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:149">
       <c r="A185" s="27" t="s">
         <v>344</v>
       </c>
@@ -69752,8 +70307,11 @@
       <c r="ER185">
         <v>95.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:148">
+      <c r="ES185">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:149">
       <c r="A186" s="27" t="s">
         <v>345</v>
       </c>
@@ -69898,8 +70456,11 @@
       <c r="ER186">
         <v>92.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:148">
+      <c r="ES186">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:149">
       <c r="A187" s="27" t="s">
         <v>346</v>
       </c>
@@ -70041,8 +70602,11 @@
       <c r="ER187">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="188" spans="1:148">
+      <c r="ES187">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:149">
       <c r="A188" s="27" t="s">
         <v>347</v>
       </c>
@@ -70181,8 +70745,11 @@
       <c r="ER188">
         <v>94.3</v>
       </c>
-    </row>
-    <row r="189" spans="1:148">
+      <c r="ES188">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:149">
       <c r="A189" s="27" t="s">
         <v>348</v>
       </c>
@@ -70318,8 +70885,11 @@
       <c r="ER189">
         <v>96.2</v>
       </c>
-    </row>
-    <row r="190" spans="1:148">
+      <c r="ES189">
+        <v>96.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:149">
       <c r="A190" s="27" t="s">
         <v>349</v>
       </c>
@@ -70452,8 +71022,11 @@
       <c r="ER190">
         <v>94.8</v>
       </c>
-    </row>
-    <row r="191" spans="1:148">
+      <c r="ES190">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:149">
       <c r="A191" s="27" t="s">
         <v>350</v>
       </c>
@@ -70583,8 +71156,11 @@
       <c r="ER191">
         <v>95.2</v>
       </c>
-    </row>
-    <row r="192" spans="1:148">
+      <c r="ES191">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:149">
       <c r="A192" s="27" t="s">
         <v>351</v>
       </c>
@@ -70711,8 +71287,11 @@
       <c r="ER192">
         <v>94.2</v>
       </c>
-    </row>
-    <row r="193" spans="1:148">
+      <c r="ES192">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:149">
       <c r="A193" s="27" t="s">
         <v>352</v>
       </c>
@@ -70836,8 +71415,11 @@
       <c r="ER193">
         <v>96.3</v>
       </c>
-    </row>
-    <row r="194" spans="1:148">
+      <c r="ES193">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:149">
       <c r="A194" s="27" t="s">
         <v>353</v>
       </c>
@@ -70958,8 +71540,11 @@
       <c r="ER194">
         <v>93.7</v>
       </c>
-    </row>
-    <row r="195" spans="1:148">
+      <c r="ES194">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:149">
       <c r="A195" s="27" t="s">
         <v>354</v>
       </c>
@@ -71077,8 +71662,11 @@
       <c r="ER195">
         <v>94.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:148">
+      <c r="ES195">
+        <v>94.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:149">
       <c r="A196" s="27" t="s">
         <v>355</v>
       </c>
@@ -71193,8 +71781,11 @@
       <c r="ER196">
         <v>93</v>
       </c>
-    </row>
-    <row r="197" spans="1:148">
+      <c r="ES196">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="1:149">
       <c r="A197" s="27" t="s">
         <v>356</v>
       </c>
@@ -71306,8 +71897,11 @@
       <c r="ER197">
         <v>94</v>
       </c>
-    </row>
-    <row r="198" spans="1:148">
+      <c r="ES197">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:149">
       <c r="A198" s="27" t="s">
         <v>357</v>
       </c>
@@ -71416,8 +72010,11 @@
       <c r="ER198">
         <v>94</v>
       </c>
-    </row>
-    <row r="199" spans="1:148">
+      <c r="ES198">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="199" spans="1:149">
       <c r="A199" s="27" t="s">
         <v>358</v>
       </c>
@@ -71523,8 +72120,11 @@
       <c r="ER199">
         <v>95.2</v>
       </c>
-    </row>
-    <row r="200" spans="1:148">
+      <c r="ES199">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:149">
       <c r="A200" s="27" t="s">
         <v>359</v>
       </c>
@@ -71627,8 +72227,11 @@
       <c r="ER200">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="201" spans="1:148">
+      <c r="ES200">
+        <v>98.9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:149">
       <c r="A201" s="27" t="s">
         <v>360</v>
       </c>
@@ -71728,8 +72331,11 @@
       <c r="ER201">
         <v>100</v>
       </c>
-    </row>
-    <row r="202" spans="1:148">
+      <c r="ES201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:149">
       <c r="A202" s="27" t="s">
         <v>361</v>
       </c>
@@ -71826,8 +72432,11 @@
       <c r="ER202">
         <v>101.3</v>
       </c>
-    </row>
-    <row r="203" spans="1:148">
+      <c r="ES202">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:149">
       <c r="A203" s="27" t="s">
         <v>362</v>
       </c>
@@ -71921,8 +72530,11 @@
       <c r="ER203">
         <v>104.7</v>
       </c>
-    </row>
-    <row r="204" spans="1:148">
+      <c r="ES203">
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:149">
       <c r="A204" s="27" t="s">
         <v>363</v>
       </c>
@@ -72013,8 +72625,11 @@
       <c r="ER204">
         <v>104.8</v>
       </c>
-    </row>
-    <row r="205" spans="1:148">
+      <c r="ES204">
+        <v>104.8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:149">
       <c r="A205" s="27" t="s">
         <v>364</v>
       </c>
@@ -72102,8 +72717,11 @@
       <c r="ER205">
         <v>105.8</v>
       </c>
-    </row>
-    <row r="206" spans="1:148">
+      <c r="ES205">
+        <v>105.8</v>
+      </c>
+    </row>
+    <row r="206" spans="1:149">
       <c r="A206" s="27" t="s">
         <v>365</v>
       </c>
@@ -72188,8 +72806,11 @@
       <c r="ER206">
         <v>106.8</v>
       </c>
-    </row>
-    <row r="207" spans="1:148">
+      <c r="ES206">
+        <v>106.8</v>
+      </c>
+    </row>
+    <row r="207" spans="1:149">
       <c r="A207" s="27" t="s">
         <v>366</v>
       </c>
@@ -72271,8 +72892,11 @@
       <c r="ER207">
         <v>112.7</v>
       </c>
-    </row>
-    <row r="208" spans="1:148">
+      <c r="ES207">
+        <v>112.7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:149">
       <c r="A208" s="27" t="s">
         <v>367</v>
       </c>
@@ -72351,8 +72975,11 @@
       <c r="ER208">
         <v>112.1</v>
       </c>
-    </row>
-    <row r="209" spans="1:148">
+      <c r="ES208">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:149">
       <c r="A209" s="27" t="s">
         <v>368</v>
       </c>
@@ -72428,8 +73055,11 @@
       <c r="ER209">
         <v>114.4</v>
       </c>
-    </row>
-    <row r="210" spans="1:148">
+      <c r="ES209">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:149">
       <c r="A210" s="27" t="s">
         <v>369</v>
       </c>
@@ -72502,8 +73132,11 @@
       <c r="ER210">
         <v>111</v>
       </c>
-    </row>
-    <row r="211" spans="1:148">
+      <c r="ES210">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="211" spans="1:149">
       <c r="A211" s="27" t="s">
         <v>370</v>
       </c>
@@ -72573,8 +73206,11 @@
       <c r="ER211">
         <v>110.7</v>
       </c>
-    </row>
-    <row r="212" spans="1:148">
+      <c r="ES211">
+        <v>110.7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:149">
       <c r="A212" s="27" t="s">
         <v>371</v>
       </c>
@@ -72641,8 +73277,11 @@
       <c r="ER212">
         <v>112.8</v>
       </c>
-    </row>
-    <row r="213" spans="1:148">
+      <c r="ES212">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:149">
       <c r="A213" s="27" t="s">
         <v>372</v>
       </c>
@@ -72706,8 +73345,11 @@
       <c r="ER213">
         <v>116.9</v>
       </c>
-    </row>
-    <row r="214" spans="1:148">
+      <c r="ES213">
+        <v>116.9</v>
+      </c>
+    </row>
+    <row r="214" spans="1:149">
       <c r="A214" s="27" t="s">
         <v>373</v>
       </c>
@@ -72768,8 +73410,11 @@
       <c r="ER214">
         <v>119</v>
       </c>
-    </row>
-    <row r="215" spans="1:148">
+      <c r="ES214">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="215" spans="1:149">
       <c r="A215" s="27" t="s">
         <v>374</v>
       </c>
@@ -72827,8 +73472,11 @@
       <c r="ER215">
         <v>119</v>
       </c>
-    </row>
-    <row r="216" spans="1:148">
+      <c r="ES215">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="216" spans="1:149">
       <c r="A216" s="27" t="s">
         <v>375</v>
       </c>
@@ -72883,8 +73531,11 @@
       <c r="ER216">
         <v>122.4</v>
       </c>
-    </row>
-    <row r="217" spans="1:148">
+      <c r="ES216">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:149">
       <c r="A217" s="27" t="s">
         <v>376</v>
       </c>
@@ -72936,8 +73587,11 @@
       <c r="ER217">
         <v>123.7</v>
       </c>
-    </row>
-    <row r="218" spans="1:148">
+      <c r="ES217">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:149">
       <c r="A218" s="27" t="s">
         <v>377</v>
       </c>
@@ -72986,8 +73640,11 @@
       <c r="ER218">
         <v>124.7</v>
       </c>
-    </row>
-    <row r="219" spans="1:148">
+      <c r="ES218">
+        <v>124.7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:149">
       <c r="A219" s="27" t="s">
         <v>378</v>
       </c>
@@ -73033,8 +73690,11 @@
       <c r="ER219">
         <v>126.4</v>
       </c>
-    </row>
-    <row r="220" spans="1:148">
+      <c r="ES219">
+        <v>126.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:149">
       <c r="A220" s="27" t="s">
         <v>379</v>
       </c>
@@ -73077,8 +73737,11 @@
       <c r="ER220">
         <v>128.4</v>
       </c>
-    </row>
-    <row r="221" spans="1:148">
+      <c r="ES220">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:149">
       <c r="A221" s="27" t="s">
         <v>380</v>
       </c>
@@ -73118,8 +73781,11 @@
       <c r="ER221">
         <v>127.8</v>
       </c>
-    </row>
-    <row r="222" spans="1:148">
+      <c r="ES221">
+        <v>127.8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:149">
       <c r="A222" s="27" t="s">
         <v>381</v>
       </c>
@@ -73156,8 +73822,11 @@
       <c r="ER222">
         <v>129.80000000000001</v>
       </c>
-    </row>
-    <row r="223" spans="1:148">
+      <c r="ES222">
+        <v>129.80000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:149">
       <c r="A223" s="27" t="s">
         <v>382</v>
       </c>
@@ -73191,8 +73860,11 @@
       <c r="ER223">
         <v>131</v>
       </c>
-    </row>
-    <row r="224" spans="1:148">
+      <c r="ES223">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="224" spans="1:149">
       <c r="A224" s="27" t="s">
         <v>383</v>
       </c>
@@ -73223,8 +73895,11 @@
       <c r="ER224">
         <v>132.5</v>
       </c>
-    </row>
-    <row r="225" spans="1:148">
+      <c r="ES224">
+        <v>132.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:149">
       <c r="A225" s="27" t="s">
         <v>384</v>
       </c>
@@ -73252,8 +73927,11 @@
       <c r="ER225">
         <v>135.1</v>
       </c>
-    </row>
-    <row r="226" spans="1:148">
+      <c r="ES225">
+        <v>135.1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:149">
       <c r="A226" s="27" t="s">
         <v>385</v>
       </c>
@@ -73278,8 +73956,11 @@
       <c r="ER226">
         <v>129.9</v>
       </c>
-    </row>
-    <row r="227" spans="1:148">
+      <c r="ES226">
+        <v>129.9</v>
+      </c>
+    </row>
+    <row r="227" spans="1:149">
       <c r="A227" s="27" t="s">
         <v>386</v>
       </c>
@@ -73301,8 +73982,11 @@
       <c r="ER227">
         <v>133.9</v>
       </c>
-    </row>
-    <row r="228" spans="1:148">
+      <c r="ES227">
+        <v>133.9</v>
+      </c>
+    </row>
+    <row r="228" spans="1:149">
       <c r="A228" s="27" t="s">
         <v>387</v>
       </c>
@@ -73321,8 +74005,11 @@
       <c r="ER228">
         <v>137.69999999999999</v>
       </c>
-    </row>
-    <row r="229" spans="1:148">
+      <c r="ES228">
+        <v>137.69999999999999</v>
+      </c>
+    </row>
+    <row r="229" spans="1:149">
       <c r="A229" s="27" t="s">
         <v>388</v>
       </c>
@@ -73338,8 +74025,11 @@
       <c r="ER229">
         <v>137.1</v>
       </c>
-    </row>
-    <row r="230" spans="1:148">
+      <c r="ES229">
+        <v>137.1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:149">
       <c r="A230" s="27" t="s">
         <v>389</v>
       </c>
@@ -73352,8 +74042,11 @@
       <c r="ER230">
         <v>135.69999999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:148">
+      <c r="ES230">
+        <v>135.69999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:149">
       <c r="A231" s="27">
         <v>43922</v>
       </c>
@@ -73363,13 +74056,27 @@
       <c r="ER231">
         <v>137.5</v>
       </c>
-    </row>
-    <row r="232" spans="1:148">
+      <c r="ES231">
+        <v>137.5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:149">
       <c r="A232" s="27">
-        <v>43837</v>
+        <v>44013</v>
       </c>
       <c r="ER232">
         <v>142.69999999999999</v>
+      </c>
+      <c r="ES232">
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:149">
+      <c r="A233" s="27">
+        <v>44105</v>
+      </c>
+      <c r="ES233">
+        <v>141.9</v>
       </c>
     </row>
   </sheetData>
@@ -73381,10 +74088,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
-    <sheetView topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+    <sheetView topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -75242,7 +75949,15 @@
         <v>44013</v>
       </c>
       <c r="B232">
-        <v>142.69999999999999</v>
+        <v>142.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B233">
+        <v>141.9</v>
       </c>
     </row>
   </sheetData>
@@ -75256,8 +75971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F91F600-5F4F-47D5-B0D4-36E02FB3AF34}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -77156,9 +77871,11 @@
         <v>137.5</v>
       </c>
       <c r="E60" s="13">
-        <v>142.69999999999999</v>
-      </c>
-      <c r="F60" s="17"/>
+        <v>142.4</v>
+      </c>
+      <c r="F60" s="13">
+        <v>141.9</v>
+      </c>
       <c r="G60" s="17"/>
       <c r="H60" s="17"/>
       <c r="I60" s="17"/>
@@ -77180,8 +77897,8 @@
   <dimension ref="A1:C447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A425" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A447" sqref="A447"/>
+      <pane ySplit="1" topLeftCell="A422" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -82141,7 +82858,7 @@
       <c r="B439" s="19">
         <v>44029</v>
       </c>
-      <c r="C439" s="19">
+      <c r="C439" s="25">
         <v>44036</v>
       </c>
     </row>
@@ -82174,7 +82891,7 @@
       <c r="B442" s="19">
         <v>44124</v>
       </c>
-      <c r="C442" s="19">
+      <c r="C442" s="25">
         <v>44130</v>
       </c>
     </row>
@@ -82207,7 +82924,7 @@
       <c r="B445" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="C445" s="19" t="s">
+      <c r="C445" s="25" t="s">
         <v>392</v>
       </c>
     </row>
